--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_12_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_12_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1647495.502893661</v>
+        <v>1644406.554525522</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10009811.0412594</v>
+        <v>10009811.04125939</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5088582.309108478</v>
+        <v>5088582.309108477</v>
       </c>
     </row>
     <row r="9">
@@ -913,7 +913,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>7.954617504417124</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.954617504417124</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>9.031127956876844</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H6" t="n">
-        <v>9.031127956876844</v>
+        <v>7.954617504417124</v>
       </c>
       <c r="I6" t="n">
         <v>9.031127956876844</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>7.954617504417124</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>7.954617504417124</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>9.031127956876844</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>9.031127956876844</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>7.954617504417124</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="S8" t="n">
-        <v>9.031127956876844</v>
+        <v>7.954617504417124</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7.954617504417124</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>9.031127956876844</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>9.031127956876844</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1290,67 +1290,67 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>9.031127956876844</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>7.954617504417124</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>9.031127956876844</v>
       </c>
-      <c r="E10" t="n">
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>9.031127956876844</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>9.031127956876844</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0.9224704114018709</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0736092860559</v>
       </c>
       <c r="V11" t="n">
-        <v>270.9670518365802</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>129.3499901133443</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>165.8897330303484</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>111.2604871491893</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>230.4487998983186</v>
       </c>
       <c r="U13" t="n">
-        <v>87.75063958515736</v>
+        <v>282.5472158224526</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>335.8227299292651</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>407.5112156607331</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>78.35732694137842</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.2134180599845</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>214.6121803398083</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0736092860559</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -1672,10 +1672,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.90316481514503</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>165.8897330303484</v>
       </c>
       <c r="H16" t="n">
-        <v>147.8621185834471</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>101.5411656238838</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>121.6131755651269</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>220.1044362884439</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>407.5112156607331</v>
+        <v>378.6958886697451</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>305.2764181262922</v>
       </c>
       <c r="I17" t="n">
-        <v>78.35732694137842</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2019,7 +2019,7 @@
         <v>165.8897330303484</v>
       </c>
       <c r="H19" t="n">
-        <v>147.8621185834471</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>111.2604871491893</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>92.00665658176814</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>49.46741752137085</v>
+        <v>188.906351207354</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.4487998983186</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5472158224526</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>142.1090539573026</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>215.8072472219596</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>407.5112156607331</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>130.2134180599845</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.6121803398083</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0736092860559</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>76.60926344693331</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>143.3774048313787</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.8897330303484</v>
       </c>
       <c r="H22" t="n">
-        <v>147.8621185834471</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>111.2604871491893</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>92.00665658176814</v>
       </c>
       <c r="S22" t="n">
         <v>188.906351207354</v>
       </c>
       <c r="T22" t="n">
-        <v>230.4487998983186</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.0086621718509</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>321.4183053995337</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -2371,7 +2371,7 @@
         <v>130.2134180599845</v>
       </c>
       <c r="T23" t="n">
-        <v>214.6121803398083</v>
+        <v>137.4727961047207</v>
       </c>
       <c r="U23" t="n">
         <v>253.0736092860559</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.67011422599323</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>147.8621185834471</v>
       </c>
       <c r="I25" t="n">
-        <v>111.2604871491893</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>188.906351207354</v>
+        <v>56.5428836671629</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>304.4473332604116</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2611,7 +2611,7 @@
         <v>214.6121803398083</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0736092860559</v>
+        <v>175.9342250509683</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.8897330303484</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.00665658176814</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>188.906351207354</v>
+        <v>15.96539507821741</v>
       </c>
       <c r="T28" t="n">
         <v>230.4487998983186</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5472158224526</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.06680863438301</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2848,10 +2848,10 @@
         <v>214.6121803398083</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0736092860559</v>
+        <v>140.8862236759202</v>
       </c>
       <c r="V29" t="n">
-        <v>226.4983555933817</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>96.66255244548735</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.8897330303484</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>92.00665658176814</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>188.906351207354</v>
       </c>
       <c r="T31" t="n">
         <v>230.4487998983186</v>
@@ -3009,16 +3009,16 @@
         <v>282.5472158224526</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>191.0197247240617</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>277.0563608719638</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>269.3993318853639</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.8621185834471</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>111.2604871491893</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>92.00665658176814</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>188.906351207354</v>
       </c>
       <c r="T34" t="n">
-        <v>230.4487998983186</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5472158224526</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>211.0974569452825</v>
+        <v>148.6545162573066</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>86.09790667595368</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>305.2764181262922</v>
       </c>
       <c r="I35" t="n">
-        <v>78.3573269413784</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.6121803398083</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0736092860559</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>283.3406932079227</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>165.8897330303484</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.8621185834471</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>111.2604871491893</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>92.00665658176814</v>
       </c>
       <c r="S37" t="n">
-        <v>151.1403921698293</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>230.4487998983186</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>161.9467407597029</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>57.79332731681358</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>272.276699266632</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>407.5112156607331</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>305.2764181262922</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.2134180599845</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>214.6121803398083</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0736092860559</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.4190162880436</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>111.2604871491893</v>
+        <v>15.96539507821745</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>188.906351207354</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>230.4487998983186</v>
@@ -3726,10 +3726,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>32.17394782127716</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3748,16 +3748,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>202.3371162955916</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>305.2764181262922</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.2134180599845</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3909,13 +3909,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.8897330303484</v>
       </c>
       <c r="H43" t="n">
-        <v>147.8621185834471</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>92.00665658176814</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.4487998983186</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5472158224526</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>57.04210149589515</v>
       </c>
       <c r="W43" t="n">
-        <v>95.11042804844686</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>334.3228845334925</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>407.5112156607331</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>305.2764181262922</v>
       </c>
       <c r="I44" t="n">
-        <v>78.3573269413784</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.2134180599845</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.6121803398083</v>
+        <v>51.68589905996978</v>
       </c>
       <c r="U44" t="n">
         <v>253.0736092860559</v>
@@ -4042,10 +4042,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.8897330303484</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.8621185834471</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>111.2604871491893</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>188.906351207354</v>
       </c>
       <c r="T46" t="n">
-        <v>144.7152868268781</v>
+        <v>230.4487998983186</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5472158224526</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>135.8943475068689</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="C5" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="D5" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="E5" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="F5" t="n">
-        <v>9.844841708142919</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7224902365501475</v>
+        <v>8.75745741272906</v>
       </c>
       <c r="H5" t="n">
         <v>0.7224902365501475</v>
@@ -4573,16 +4573,16 @@
         <v>9.663306913858223</v>
       </c>
       <c r="L5" t="n">
+        <v>9.663306913858223</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.663306913858223</v>
+      </c>
+      <c r="N5" t="n">
         <v>18.6041235911663</v>
       </c>
-      <c r="M5" t="n">
-        <v>27.54494026847438</v>
-      </c>
-      <c r="N5" t="n">
-        <v>36.12451182750738</v>
-      </c>
       <c r="O5" t="n">
-        <v>36.12451182750738</v>
+        <v>27.1836951501993</v>
       </c>
       <c r="P5" t="n">
         <v>36.12451182750738</v>
@@ -4591,28 +4591,28 @@
         <v>36.12451182750738</v>
       </c>
       <c r="R5" t="n">
-        <v>28.08954465132846</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="S5" t="n">
-        <v>28.08954465132846</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="T5" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="U5" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="V5" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="W5" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="X5" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="C6" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="D6" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="E6" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="F6" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="G6" t="n">
-        <v>18.96719317973569</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="H6" t="n">
         <v>9.844841708142919</v>
@@ -4646,22 +4646,22 @@
         <v>0.7224902365501475</v>
       </c>
       <c r="J6" t="n">
-        <v>9.302061795583144</v>
+        <v>9.663306913858223</v>
       </c>
       <c r="K6" t="n">
-        <v>9.302061795583144</v>
+        <v>9.663306913858223</v>
       </c>
       <c r="L6" t="n">
-        <v>18.24287847289122</v>
+        <v>18.6041235911663</v>
       </c>
       <c r="M6" t="n">
-        <v>18.24287847289122</v>
+        <v>27.54494026847438</v>
       </c>
       <c r="N6" t="n">
-        <v>18.24287847289122</v>
+        <v>36.12451182750738</v>
       </c>
       <c r="O6" t="n">
-        <v>27.1836951501993</v>
+        <v>36.12451182750738</v>
       </c>
       <c r="P6" t="n">
         <v>36.12451182750738</v>
@@ -4685,13 +4685,13 @@
         <v>27.0021603559146</v>
       </c>
       <c r="W6" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="X6" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.96719317973569</v>
+        <v>27.0021603559146</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.844841708142919</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="C7" t="n">
-        <v>9.844841708142919</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="D7" t="n">
-        <v>9.844841708142919</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="E7" t="n">
-        <v>9.844841708142919</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="F7" t="n">
         <v>9.844841708142919</v>
@@ -4728,16 +4728,16 @@
         <v>0.7224902365501475</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7224902365501475</v>
+        <v>9.663306913858223</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7224902365501475</v>
+        <v>9.663306913858223</v>
       </c>
       <c r="M7" t="n">
-        <v>5.879865425532191</v>
+        <v>9.663306913858223</v>
       </c>
       <c r="N7" t="n">
-        <v>14.82068210284027</v>
+        <v>18.6041235911663</v>
       </c>
       <c r="O7" t="n">
         <v>23.76149878014834</v>
@@ -4749,28 +4749,28 @@
         <v>36.12451182750738</v>
       </c>
       <c r="R7" t="n">
-        <v>27.0021603559146</v>
+        <v>36.12451182750738</v>
       </c>
       <c r="S7" t="n">
-        <v>17.87980888432183</v>
+        <v>36.12451182750738</v>
       </c>
       <c r="T7" t="n">
-        <v>17.87980888432183</v>
+        <v>36.12451182750738</v>
       </c>
       <c r="U7" t="n">
-        <v>17.87980888432183</v>
+        <v>36.12451182750738</v>
       </c>
       <c r="V7" t="n">
-        <v>9.844841708142919</v>
+        <v>36.12451182750738</v>
       </c>
       <c r="W7" t="n">
-        <v>9.844841708142919</v>
+        <v>36.12451182750738</v>
       </c>
       <c r="X7" t="n">
-        <v>9.844841708142919</v>
+        <v>36.12451182750738</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.844841708142919</v>
+        <v>36.12451182750738</v>
       </c>
     </row>
     <row r="8">
@@ -4804,22 +4804,22 @@
         <v>0.7224902365501475</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7224902365501475</v>
+        <v>9.663306913858223</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7224902365501475</v>
+        <v>18.6041235911663</v>
       </c>
       <c r="L8" t="n">
-        <v>9.663306913858223</v>
+        <v>27.1836951501993</v>
       </c>
       <c r="M8" t="n">
-        <v>18.24287847289122</v>
+        <v>27.1836951501993</v>
       </c>
       <c r="N8" t="n">
-        <v>18.24287847289122</v>
+        <v>27.1836951501993</v>
       </c>
       <c r="O8" t="n">
-        <v>18.24287847289122</v>
+        <v>27.1836951501993</v>
       </c>
       <c r="P8" t="n">
         <v>27.1836951501993</v>
@@ -4828,19 +4828,19 @@
         <v>36.12451182750738</v>
       </c>
       <c r="R8" t="n">
-        <v>36.12451182750738</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="S8" t="n">
-        <v>27.0021603559146</v>
+        <v>18.96719317973569</v>
       </c>
       <c r="T8" t="n">
-        <v>27.0021603559146</v>
+        <v>18.96719317973569</v>
       </c>
       <c r="U8" t="n">
-        <v>27.0021603559146</v>
+        <v>18.96719317973569</v>
       </c>
       <c r="V8" t="n">
-        <v>27.0021603559146</v>
+        <v>18.96719317973569</v>
       </c>
       <c r="W8" t="n">
         <v>18.96719317973569</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>18.96719317973569</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18.96719317973569</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.96719317973569</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18.96719317973569</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18.96719317973569</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18.96719317973569</v>
+      </c>
+      <c r="H9" t="n">
         <v>9.844841708142919</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9.844841708142919</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.844841708142919</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.844841708142919</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7224902365501475</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7224902365501475</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.7224902365501475</v>
       </c>
       <c r="I9" t="n">
         <v>0.7224902365501475</v>
@@ -4895,13 +4895,13 @@
         <v>9.663306913858223</v>
       </c>
       <c r="N9" t="n">
+        <v>9.663306913858223</v>
+      </c>
+      <c r="O9" t="n">
         <v>18.24287847289122</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>27.1836951501993</v>
-      </c>
-      <c r="P9" t="n">
-        <v>36.12451182750738</v>
       </c>
       <c r="Q9" t="n">
         <v>36.12451182750738</v>
@@ -4916,19 +4916,19 @@
         <v>18.96719317973569</v>
       </c>
       <c r="U9" t="n">
-        <v>9.844841708142919</v>
+        <v>18.96719317973569</v>
       </c>
       <c r="V9" t="n">
-        <v>9.844841708142919</v>
+        <v>18.96719317973569</v>
       </c>
       <c r="W9" t="n">
-        <v>9.844841708142919</v>
+        <v>18.96719317973569</v>
       </c>
       <c r="X9" t="n">
-        <v>9.844841708142919</v>
+        <v>18.96719317973569</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.844841708142919</v>
+        <v>18.96719317973569</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.08954465132846</v>
+        <v>8.75745741272906</v>
       </c>
       <c r="C10" t="n">
-        <v>28.08954465132846</v>
+        <v>8.75745741272906</v>
       </c>
       <c r="D10" t="n">
-        <v>18.96719317973569</v>
+        <v>8.75745741272906</v>
       </c>
       <c r="E10" t="n">
-        <v>9.844841708142919</v>
+        <v>0.7224902365501475</v>
       </c>
       <c r="F10" t="n">
-        <v>9.844841708142919</v>
+        <v>0.7224902365501475</v>
       </c>
       <c r="G10" t="n">
-        <v>9.844841708142919</v>
+        <v>0.7224902365501475</v>
       </c>
       <c r="H10" t="n">
-        <v>9.844841708142919</v>
+        <v>0.7224902365501475</v>
       </c>
       <c r="I10" t="n">
-        <v>9.844841708142919</v>
+        <v>0.7224902365501475</v>
       </c>
       <c r="J10" t="n">
         <v>0.7224902365501475</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7224902365501475</v>
+        <v>9.663306913858223</v>
       </c>
       <c r="L10" t="n">
-        <v>5.879865425532191</v>
+        <v>18.6041235911663</v>
       </c>
       <c r="M10" t="n">
-        <v>14.82068210284027</v>
+        <v>18.6041235911663</v>
       </c>
       <c r="N10" t="n">
         <v>23.76149878014834</v>
@@ -4992,22 +4992,22 @@
         <v>36.12451182750738</v>
       </c>
       <c r="T10" t="n">
-        <v>36.12451182750738</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="U10" t="n">
-        <v>36.12451182750738</v>
+        <v>27.0021603559146</v>
       </c>
       <c r="V10" t="n">
-        <v>36.12451182750738</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="W10" t="n">
-        <v>36.12451182750738</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="X10" t="n">
-        <v>36.12451182750738</v>
+        <v>17.87980888432183</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.12451182750738</v>
+        <v>17.87980888432183</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>824.3055850335111</v>
+        <v>842.3797694279797</v>
       </c>
       <c r="C11" t="n">
-        <v>431.1300835364417</v>
+        <v>449.2042679309102</v>
       </c>
       <c r="D11" t="n">
-        <v>45.68895475310945</v>
+        <v>448.2724796365649</v>
       </c>
       <c r="E11" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="F11" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="G11" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="H11" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="I11" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="J11" t="n">
-        <v>56.89656487256795</v>
+        <v>318.0493773443187</v>
       </c>
       <c r="K11" t="n">
-        <v>106.6739040283108</v>
+        <v>367.8267165000615</v>
       </c>
       <c r="L11" t="n">
-        <v>192.4132400720896</v>
+        <v>453.5660525438404</v>
       </c>
       <c r="M11" t="n">
-        <v>308.3999059608859</v>
+        <v>569.5527184326368</v>
       </c>
       <c r="N11" t="n">
-        <v>873.8007210306154</v>
+        <v>1134.953533502366</v>
       </c>
       <c r="O11" t="n">
-        <v>1439.201536100345</v>
+        <v>1700.354348572095</v>
       </c>
       <c r="P11" t="n">
-        <v>1937.110082834034</v>
+        <v>2264.921475898698</v>
       </c>
       <c r="Q11" t="n">
-        <v>2284.447737655472</v>
+        <v>2284.35985914498</v>
       </c>
       <c r="R11" t="n">
         <v>2284.447737655472</v>
@@ -5074,19 +5074,19 @@
         <v>2284.447737655472</v>
       </c>
       <c r="U11" t="n">
-        <v>2284.447737655472</v>
+        <v>2028.817829285719</v>
       </c>
       <c r="V11" t="n">
-        <v>2010.74364489125</v>
+        <v>2028.817829285719</v>
       </c>
       <c r="W11" t="n">
-        <v>2010.74364489125</v>
+        <v>2028.817829285719</v>
       </c>
       <c r="X11" t="n">
-        <v>1621.291039824307</v>
+        <v>1639.365224218775</v>
       </c>
       <c r="Y11" t="n">
-        <v>1224.800330744908</v>
+        <v>1242.874515139377</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>808.0181194437037</v>
+        <v>808.0181194437032</v>
       </c>
       <c r="C12" t="n">
-        <v>657.3638890037957</v>
+        <v>657.3638890037953</v>
       </c>
       <c r="D12" t="n">
-        <v>527.274921625276</v>
+        <v>527.2749216252756</v>
       </c>
       <c r="E12" t="n">
-        <v>390.8284307361637</v>
+        <v>390.8284307361632</v>
       </c>
       <c r="F12" t="n">
-        <v>266.3966246192954</v>
+        <v>266.396624619295</v>
       </c>
       <c r="G12" t="n">
-        <v>147.1582458552136</v>
+        <v>147.1582458552132</v>
       </c>
       <c r="H12" t="n">
-        <v>66.79420243496452</v>
+        <v>66.79420243496406</v>
       </c>
       <c r="I12" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="J12" t="n">
-        <v>45.68895475310945</v>
+        <v>234.8675250181253</v>
       </c>
       <c r="K12" t="n">
-        <v>383.1566238095284</v>
+        <v>684.6114582798032</v>
       </c>
       <c r="L12" t="n">
-        <v>948.5574388792578</v>
+        <v>770.2591948683356</v>
       </c>
       <c r="M12" t="n">
-        <v>1513.958253948987</v>
+        <v>882.7880280363745</v>
       </c>
       <c r="N12" t="n">
-        <v>1638.831009686226</v>
+        <v>1007.660783773614</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.231824755956</v>
+        <v>1361.409296951391</v>
       </c>
       <c r="P12" t="n">
-        <v>2271.756654724789</v>
+        <v>1920.768026807744</v>
       </c>
       <c r="Q12" t="n">
-        <v>2284.447737655472</v>
+        <v>2257.902472917672</v>
       </c>
       <c r="R12" t="n">
         <v>2284.447737655472</v>
@@ -5150,7 +5150,7 @@
         <v>2164.774932747303</v>
       </c>
       <c r="T12" t="n">
-        <v>1991.102097225884</v>
+        <v>1991.102097225883</v>
       </c>
       <c r="U12" t="n">
         <v>1781.092995954792</v>
@@ -5162,10 +5162,10 @@
         <v>1328.435748459146</v>
       </c>
       <c r="X12" t="n">
-        <v>1139.128670809158</v>
+        <v>1139.128670809157</v>
       </c>
       <c r="Y12" t="n">
-        <v>959.814453884665</v>
+        <v>959.8144538846645</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>481.2717852036631</v>
+        <v>501.236832109523</v>
       </c>
       <c r="C13" t="n">
-        <v>481.2717852036631</v>
+        <v>501.236832109523</v>
       </c>
       <c r="D13" t="n">
-        <v>325.6386721061779</v>
+        <v>370.5802764394783</v>
       </c>
       <c r="E13" t="n">
-        <v>325.6386721061779</v>
+        <v>370.5802764394783</v>
       </c>
       <c r="F13" t="n">
-        <v>325.6386721061779</v>
+        <v>213.2543416524512</v>
       </c>
       <c r="G13" t="n">
-        <v>158.0732852068361</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="H13" t="n">
-        <v>158.0732852068361</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="I13" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="J13" t="n">
-        <v>63.63506287739141</v>
+        <v>63.63506287739139</v>
       </c>
       <c r="K13" t="n">
         <v>223.8884776820194</v>
@@ -5232,19 +5232,19 @@
         <v>1069.968462281833</v>
       </c>
       <c r="U13" t="n">
-        <v>981.3314525998558</v>
+        <v>784.5672341783454</v>
       </c>
       <c r="V13" t="n">
-        <v>715.35210742068</v>
+        <v>784.5672341783454</v>
       </c>
       <c r="W13" t="n">
-        <v>715.35210742068</v>
+        <v>501.236832109523</v>
       </c>
       <c r="X13" t="n">
-        <v>481.2717852036631</v>
+        <v>501.236832109523</v>
       </c>
       <c r="Y13" t="n">
-        <v>481.2717852036631</v>
+        <v>501.236832109523</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>953.3596988818302</v>
+        <v>384.9038334695388</v>
       </c>
       <c r="C14" t="n">
-        <v>953.3596988818302</v>
+        <v>384.9038334695388</v>
       </c>
       <c r="D14" t="n">
-        <v>953.3596988818302</v>
+        <v>384.9038334695388</v>
       </c>
       <c r="E14" t="n">
-        <v>953.3596988818302</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="F14" t="n">
-        <v>536.465260411808</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="G14" t="n">
-        <v>124.8377698454109</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="H14" t="n">
-        <v>124.8377698454109</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="I14" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="J14" t="n">
         <v>318.0493773443187</v>
       </c>
       <c r="K14" t="n">
-        <v>868.4368916749684</v>
+        <v>868.4368916749685</v>
       </c>
       <c r="L14" t="n">
         <v>1433.837706744698</v>
@@ -5299,31 +5299,31 @@
         <v>1879.826498700681</v>
       </c>
       <c r="Q14" t="n">
-        <v>2227.16415352212</v>
+        <v>2227.164153522119</v>
       </c>
       <c r="R14" t="n">
         <v>2284.447737655472</v>
       </c>
       <c r="S14" t="n">
-        <v>2152.919032544377</v>
+        <v>2284.447737655472</v>
       </c>
       <c r="T14" t="n">
-        <v>1936.139052403156</v>
+        <v>2284.447737655472</v>
       </c>
       <c r="U14" t="n">
-        <v>1680.509144033403</v>
+        <v>2284.447737655472</v>
       </c>
       <c r="V14" t="n">
-        <v>1338.402334736922</v>
+        <v>1942.34092835899</v>
       </c>
       <c r="W14" t="n">
-        <v>967.4032997052091</v>
+        <v>1571.341893327278</v>
       </c>
       <c r="X14" t="n">
-        <v>967.4032997052091</v>
+        <v>1181.889288260335</v>
       </c>
       <c r="Y14" t="n">
-        <v>953.3596988818302</v>
+        <v>785.3985791809357</v>
       </c>
     </row>
     <row r="15">
@@ -5333,61 +5333,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>808.0181194437037</v>
+        <v>808.0181194437031</v>
       </c>
       <c r="C15" t="n">
-        <v>657.3638890037957</v>
+        <v>657.3638890037953</v>
       </c>
       <c r="D15" t="n">
-        <v>527.274921625276</v>
+        <v>527.2749216252756</v>
       </c>
       <c r="E15" t="n">
-        <v>390.8284307361637</v>
+        <v>390.8284307361633</v>
       </c>
       <c r="F15" t="n">
-        <v>266.3966246192954</v>
+        <v>266.3966246192952</v>
       </c>
       <c r="G15" t="n">
-        <v>147.1582458552136</v>
+        <v>147.1582458552132</v>
       </c>
       <c r="H15" t="n">
-        <v>66.79420243496452</v>
+        <v>66.79420243496406</v>
       </c>
       <c r="I15" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="J15" t="n">
-        <v>45.68895475310945</v>
+        <v>234.8675250181253</v>
       </c>
       <c r="K15" t="n">
-        <v>86.99277597256093</v>
+        <v>684.6114582798032</v>
       </c>
       <c r="L15" t="n">
-        <v>652.3935910422904</v>
+        <v>770.2591948683356</v>
       </c>
       <c r="M15" t="n">
-        <v>1217.79440611202</v>
+        <v>1136.745232466765</v>
       </c>
       <c r="N15" t="n">
-        <v>1779.997152829324</v>
+        <v>1261.617988204004</v>
       </c>
       <c r="O15" t="n">
-        <v>1879.78846157671</v>
+        <v>1361.409296951391</v>
       </c>
       <c r="P15" t="n">
-        <v>1947.313291545544</v>
+        <v>1920.768026807743</v>
       </c>
       <c r="Q15" t="n">
-        <v>2284.447737655472</v>
+        <v>2257.902472917672</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.447737655472</v>
+        <v>2284.447737655471</v>
       </c>
       <c r="S15" t="n">
-        <v>2164.774932747303</v>
+        <v>2164.774932747302</v>
       </c>
       <c r="T15" t="n">
-        <v>1991.102097225884</v>
+        <v>1991.102097225883</v>
       </c>
       <c r="U15" t="n">
         <v>1781.092995954792</v>
@@ -5399,10 +5399,10 @@
         <v>1328.435748459146</v>
       </c>
       <c r="X15" t="n">
-        <v>1139.128670809158</v>
+        <v>1139.128670809157</v>
       </c>
       <c r="Y15" t="n">
-        <v>959.814453884665</v>
+        <v>959.8144538846644</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>688.3739470640747</v>
+        <v>696.4185074709744</v>
       </c>
       <c r="C16" t="n">
-        <v>518.168829130064</v>
+        <v>526.2133895369636</v>
       </c>
       <c r="D16" t="n">
-        <v>518.168829130064</v>
+        <v>370.5802764394783</v>
       </c>
       <c r="E16" t="n">
-        <v>362.6100169892665</v>
+        <v>370.5802764394783</v>
       </c>
       <c r="F16" t="n">
-        <v>362.6100169892665</v>
+        <v>213.2543416524512</v>
       </c>
       <c r="G16" t="n">
-        <v>195.0446300899247</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="H16" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="I16" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="J16" t="n">
-        <v>63.63506287739141</v>
+        <v>63.63506287739139</v>
       </c>
       <c r="K16" t="n">
         <v>223.8884776820194</v>
@@ -5469,19 +5469,19 @@
         <v>1493.559524004734</v>
       </c>
       <c r="U16" t="n">
-        <v>1390.992690041215</v>
+        <v>1493.559524004734</v>
       </c>
       <c r="V16" t="n">
-        <v>1390.992690041215</v>
+        <v>1227.580178825559</v>
       </c>
       <c r="W16" t="n">
-        <v>1107.662287972393</v>
+        <v>1227.580178825559</v>
       </c>
       <c r="X16" t="n">
-        <v>873.581965755376</v>
+        <v>1104.738587345632</v>
       </c>
       <c r="Y16" t="n">
-        <v>873.581965755376</v>
+        <v>881.6265261622757</v>
       </c>
     </row>
     <row r="17">
@@ -5491,58 +5491,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1175.687412304501</v>
+        <v>1139.15359761236</v>
       </c>
       <c r="C17" t="n">
-        <v>1175.687412304501</v>
+        <v>1139.15359761236</v>
       </c>
       <c r="D17" t="n">
-        <v>1175.687412304501</v>
+        <v>1139.15359761236</v>
       </c>
       <c r="E17" t="n">
-        <v>953.3596988818302</v>
+        <v>736.5700727289047</v>
       </c>
       <c r="F17" t="n">
-        <v>536.465260411808</v>
+        <v>736.5700727289047</v>
       </c>
       <c r="G17" t="n">
-        <v>124.8377698454109</v>
+        <v>354.0489730624955</v>
       </c>
       <c r="H17" t="n">
-        <v>124.8377698454109</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="I17" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="J17" t="n">
-        <v>56.89656487256795</v>
+        <v>318.0493773443187</v>
       </c>
       <c r="K17" t="n">
-        <v>106.6739040283108</v>
+        <v>367.8267165000616</v>
       </c>
       <c r="L17" t="n">
-        <v>192.4132400720896</v>
+        <v>453.5660525438405</v>
       </c>
       <c r="M17" t="n">
-        <v>757.814055141819</v>
+        <v>1018.96686761357</v>
       </c>
       <c r="N17" t="n">
-        <v>1323.214870211548</v>
+        <v>1139.829294463014</v>
       </c>
       <c r="O17" t="n">
-        <v>1700.442227082588</v>
+        <v>1315.259371374078</v>
       </c>
       <c r="P17" t="n">
-        <v>2265.009354409191</v>
+        <v>1879.826498700681</v>
       </c>
       <c r="Q17" t="n">
-        <v>2284.447737655472</v>
+        <v>2227.164153522119</v>
       </c>
       <c r="R17" t="n">
         <v>2284.447737655472</v>
       </c>
       <c r="S17" t="n">
-        <v>2152.919032544377</v>
+        <v>2152.919032544376</v>
       </c>
       <c r="T17" t="n">
         <v>1936.139052403156</v>
@@ -5554,13 +5554,13 @@
         <v>1936.139052403156</v>
       </c>
       <c r="W17" t="n">
-        <v>1565.140017371444</v>
+        <v>1936.139052403156</v>
       </c>
       <c r="X17" t="n">
-        <v>1175.687412304501</v>
+        <v>1936.139052403156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1175.687412304501</v>
+        <v>1539.648343323757</v>
       </c>
     </row>
     <row r="18">
@@ -5570,61 +5570,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>808.0181194437037</v>
+        <v>808.0181194437031</v>
       </c>
       <c r="C18" t="n">
-        <v>657.3638890037957</v>
+        <v>657.3638890037953</v>
       </c>
       <c r="D18" t="n">
-        <v>527.274921625276</v>
+        <v>527.2749216252756</v>
       </c>
       <c r="E18" t="n">
-        <v>390.8284307361637</v>
+        <v>390.8284307361633</v>
       </c>
       <c r="F18" t="n">
-        <v>266.3966246192954</v>
+        <v>266.3966246192952</v>
       </c>
       <c r="G18" t="n">
-        <v>147.1582458552136</v>
+        <v>147.1582458552132</v>
       </c>
       <c r="H18" t="n">
-        <v>66.79420243496452</v>
+        <v>66.79420243496406</v>
       </c>
       <c r="I18" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="J18" t="n">
-        <v>45.68895475310945</v>
+        <v>234.8675250181253</v>
       </c>
       <c r="K18" t="n">
-        <v>495.4328880147874</v>
+        <v>684.6114582798032</v>
       </c>
       <c r="L18" t="n">
-        <v>581.0806246033198</v>
+        <v>1024.216399298726</v>
       </c>
       <c r="M18" t="n">
-        <v>1146.481439673049</v>
+        <v>1136.745232466765</v>
       </c>
       <c r="N18" t="n">
-        <v>1711.882254742779</v>
+        <v>1261.617988204004</v>
       </c>
       <c r="O18" t="n">
-        <v>2204.231824755956</v>
+        <v>1361.409296951391</v>
       </c>
       <c r="P18" t="n">
-        <v>2271.756654724789</v>
+        <v>1920.768026807743</v>
       </c>
       <c r="Q18" t="n">
-        <v>2284.447737655472</v>
+        <v>2257.902472917672</v>
       </c>
       <c r="R18" t="n">
-        <v>2284.447737655472</v>
+        <v>2284.447737655471</v>
       </c>
       <c r="S18" t="n">
-        <v>2164.774932747303</v>
+        <v>2164.774932747302</v>
       </c>
       <c r="T18" t="n">
-        <v>1991.102097225884</v>
+        <v>1991.102097225883</v>
       </c>
       <c r="U18" t="n">
         <v>1781.092995954792</v>
@@ -5636,10 +5636,10 @@
         <v>1328.435748459146</v>
       </c>
       <c r="X18" t="n">
-        <v>1139.128670809158</v>
+        <v>1139.128670809157</v>
       </c>
       <c r="Y18" t="n">
-        <v>959.814453884665</v>
+        <v>959.8144538846644</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>474.9943474429931</v>
+        <v>325.6386721061779</v>
       </c>
       <c r="C19" t="n">
-        <v>474.9943474429931</v>
+        <v>325.6386721061779</v>
       </c>
       <c r="D19" t="n">
-        <v>474.9943474429931</v>
+        <v>325.6386721061779</v>
       </c>
       <c r="E19" t="n">
-        <v>474.9943474429931</v>
+        <v>325.6386721061779</v>
       </c>
       <c r="F19" t="n">
-        <v>474.9943474429931</v>
+        <v>325.6386721061779</v>
       </c>
       <c r="G19" t="n">
-        <v>307.4289605436513</v>
+        <v>158.0732852068361</v>
       </c>
       <c r="H19" t="n">
         <v>158.0732852068361</v>
       </c>
       <c r="I19" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="J19" t="n">
-        <v>63.63506287739141</v>
+        <v>63.63506287739139</v>
       </c>
       <c r="K19" t="n">
         <v>223.8884776820194</v>
@@ -5697,28 +5697,28 @@
         <v>1586.495540753995</v>
       </c>
       <c r="R19" t="n">
-        <v>1493.559524004734</v>
+        <v>1586.495540753995</v>
       </c>
       <c r="S19" t="n">
-        <v>1443.592435599309</v>
+        <v>1395.681044584951</v>
       </c>
       <c r="T19" t="n">
-        <v>1443.592435599309</v>
+        <v>1162.904479031094</v>
       </c>
       <c r="U19" t="n">
-        <v>1443.592435599309</v>
+        <v>877.5032509276061</v>
       </c>
       <c r="V19" t="n">
-        <v>1177.613090420134</v>
+        <v>877.5032509276061</v>
       </c>
       <c r="W19" t="n">
-        <v>894.2826883513113</v>
+        <v>877.5032509276061</v>
       </c>
       <c r="X19" t="n">
-        <v>660.2023661342944</v>
+        <v>733.9587519808358</v>
       </c>
       <c r="Y19" t="n">
-        <v>660.2023661342944</v>
+        <v>510.8466907974791</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1887.957028576074</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="C20" t="n">
-        <v>1494.781527079004</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="D20" t="n">
-        <v>1276.794408672984</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="E20" t="n">
-        <v>874.2108837895288</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="F20" t="n">
-        <v>457.3164453195066</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="G20" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="H20" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="I20" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="J20" t="n">
         <v>318.0493773443187</v>
       </c>
       <c r="K20" t="n">
-        <v>868.4368916749685</v>
+        <v>772.493844971573</v>
       </c>
       <c r="L20" t="n">
-        <v>1433.837706744698</v>
+        <v>1337.894660041302</v>
       </c>
       <c r="M20" t="n">
-        <v>1549.824372633494</v>
+        <v>1453.881325930099</v>
       </c>
       <c r="N20" t="n">
-        <v>1764.069837799305</v>
+        <v>1574.743752779543</v>
       </c>
       <c r="O20" t="n">
-        <v>1869.528880407469</v>
+        <v>2140.144567849272</v>
       </c>
       <c r="P20" t="n">
-        <v>1937.110082834034</v>
+        <v>2207.725770275837</v>
       </c>
       <c r="Q20" t="n">
-        <v>2284.447737655472</v>
+        <v>2227.164153522119</v>
       </c>
       <c r="R20" t="n">
         <v>2284.447737655472</v>
       </c>
       <c r="S20" t="n">
-        <v>2284.447737655472</v>
+        <v>2152.919032544376</v>
       </c>
       <c r="T20" t="n">
-        <v>2284.447737655472</v>
+        <v>1936.139052403156</v>
       </c>
       <c r="U20" t="n">
-        <v>2284.447737655472</v>
+        <v>1680.509144033403</v>
       </c>
       <c r="V20" t="n">
-        <v>2284.447737655472</v>
+        <v>1603.126049642561</v>
       </c>
       <c r="W20" t="n">
-        <v>2284.447737655472</v>
+        <v>1232.127014610848</v>
       </c>
       <c r="X20" t="n">
-        <v>2284.447737655472</v>
+        <v>842.6744095439052</v>
       </c>
       <c r="Y20" t="n">
-        <v>1887.957028576074</v>
+        <v>446.1837004645063</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>147.1582458552132</v>
       </c>
       <c r="H21" t="n">
-        <v>66.79420243496408</v>
+        <v>66.79420243496406</v>
       </c>
       <c r="I21" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="J21" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="K21" t="n">
-        <v>86.99277597256093</v>
+        <v>495.4328880147874</v>
       </c>
       <c r="L21" t="n">
-        <v>652.3935910422904</v>
+        <v>909.5955208934284</v>
       </c>
       <c r="M21" t="n">
-        <v>764.9224242103294</v>
+        <v>1022.124354061467</v>
       </c>
       <c r="N21" t="n">
-        <v>1330.323239280059</v>
+        <v>1146.997109798707</v>
       </c>
       <c r="O21" t="n">
         <v>1712.397924868436</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>195.0446300899247</v>
+        <v>796.302564583511</v>
       </c>
       <c r="C22" t="n">
-        <v>195.0446300899247</v>
+        <v>626.0974466495002</v>
       </c>
       <c r="D22" t="n">
-        <v>195.0446300899247</v>
+        <v>470.4643335520149</v>
       </c>
       <c r="E22" t="n">
-        <v>195.0446300899247</v>
+        <v>325.6386721061779</v>
       </c>
       <c r="F22" t="n">
-        <v>195.0446300899247</v>
+        <v>325.6386721061779</v>
       </c>
       <c r="G22" t="n">
-        <v>195.0446300899247</v>
+        <v>158.0732852068361</v>
       </c>
       <c r="H22" t="n">
-        <v>45.68895475310945</v>
+        <v>158.0732852068361</v>
       </c>
       <c r="I22" t="n">
-        <v>45.68895475310945</v>
+        <v>45.68895475310944</v>
       </c>
       <c r="J22" t="n">
-        <v>63.63506287739141</v>
+        <v>63.63506287739139</v>
       </c>
       <c r="K22" t="n">
         <v>223.8884776820194</v>
@@ -5934,28 +5934,28 @@
         <v>1586.495540753995</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.495540753995</v>
+        <v>1493.559524004734</v>
       </c>
       <c r="S22" t="n">
-        <v>1395.681044584951</v>
+        <v>1302.74502783569</v>
       </c>
       <c r="T22" t="n">
-        <v>1162.904479031094</v>
+        <v>1302.74502783569</v>
       </c>
       <c r="U22" t="n">
-        <v>1162.904479031094</v>
+        <v>1302.74502783569</v>
       </c>
       <c r="V22" t="n">
-        <v>896.9251338519178</v>
+        <v>1302.74502783569</v>
       </c>
       <c r="W22" t="n">
-        <v>613.5947317830955</v>
+        <v>1019.414625766868</v>
       </c>
       <c r="X22" t="n">
-        <v>380.252648781226</v>
+        <v>1019.414625766868</v>
       </c>
       <c r="Y22" t="n">
-        <v>380.252648781226</v>
+        <v>796.302564583511</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2417.736732269074</v>
+        <v>2495.655302203505</v>
       </c>
       <c r="C23" t="n">
-        <v>2024.561230772004</v>
+        <v>2102.479800706436</v>
       </c>
       <c r="D23" t="n">
-        <v>1639.120101988672</v>
+        <v>1717.038671923104</v>
       </c>
       <c r="E23" t="n">
         <v>1314.455147039648</v>
@@ -5998,13 +5998,13 @@
         <v>1651.947637318895</v>
       </c>
       <c r="M23" t="n">
-        <v>2462.163004334021</v>
+        <v>2462.163004334022</v>
       </c>
       <c r="N23" t="n">
-        <v>3258.464021245334</v>
+        <v>3258.464021245335</v>
       </c>
       <c r="O23" t="n">
-        <v>3952.030863795681</v>
+        <v>3952.030863795682</v>
       </c>
       <c r="P23" t="n">
         <v>4516.597991122285</v>
@@ -6019,22 +6019,22 @@
         <v>4789.69052496598</v>
       </c>
       <c r="T23" t="n">
-        <v>4572.91054482476</v>
+        <v>4650.829114759192</v>
       </c>
       <c r="U23" t="n">
-        <v>4317.280636455007</v>
+        <v>4395.199206389439</v>
       </c>
       <c r="V23" t="n">
-        <v>3975.173827158525</v>
+        <v>4053.092397092957</v>
       </c>
       <c r="W23" t="n">
-        <v>3604.174792126813</v>
+        <v>3682.093362061245</v>
       </c>
       <c r="X23" t="n">
-        <v>3214.72218705987</v>
+        <v>3292.640756994301</v>
       </c>
       <c r="Y23" t="n">
-        <v>2818.231477980471</v>
+        <v>2896.150047914902</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>98.42438460154152</v>
       </c>
       <c r="J24" t="n">
-        <v>98.42438460154152</v>
+        <v>287.6029548665574</v>
       </c>
       <c r="K24" t="n">
-        <v>139.728205820993</v>
+        <v>737.3468881282353</v>
       </c>
       <c r="L24" t="n">
-        <v>798.1017716961878</v>
+        <v>1076.951829147158</v>
       </c>
       <c r="M24" t="n">
-        <v>1629.865505319727</v>
+        <v>1189.480662315197</v>
       </c>
       <c r="N24" t="n">
-        <v>1754.738261056966</v>
+        <v>1314.353418052436</v>
       </c>
       <c r="O24" t="n">
-        <v>1854.529569804353</v>
+        <v>1414.144726799823</v>
       </c>
       <c r="P24" t="n">
-        <v>2324.492084573221</v>
+        <v>1973.503456656176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2337.183167503904</v>
+        <v>2310.637902766104</v>
       </c>
       <c r="R24" t="n">
         <v>2337.183167503904</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4110.670509892042</v>
+        <v>573.5439900131651</v>
       </c>
       <c r="C25" t="n">
-        <v>4110.670509892042</v>
+        <v>403.3388720791542</v>
       </c>
       <c r="D25" t="n">
-        <v>3955.037396794557</v>
+        <v>403.3388720791542</v>
       </c>
       <c r="E25" t="n">
-        <v>3799.47858465376</v>
+        <v>247.7800599383567</v>
       </c>
       <c r="F25" t="n">
-        <v>3642.152649866733</v>
+        <v>247.7800599383567</v>
       </c>
       <c r="G25" t="n">
-        <v>3642.152649866733</v>
+        <v>247.7800599383567</v>
       </c>
       <c r="H25" t="n">
-        <v>3492.796974529917</v>
+        <v>98.42438460154152</v>
       </c>
       <c r="I25" t="n">
-        <v>3380.412644076191</v>
+        <v>98.42438460154152</v>
       </c>
       <c r="J25" t="n">
-        <v>3398.358752200473</v>
+        <v>116.3704927258235</v>
       </c>
       <c r="K25" t="n">
-        <v>3558.612167005101</v>
+        <v>276.6239075304515</v>
       </c>
       <c r="L25" t="n">
-        <v>3823.088326706983</v>
+        <v>541.1000672323341</v>
       </c>
       <c r="M25" t="n">
-        <v>4115.183349303265</v>
+        <v>833.1950898286163</v>
       </c>
       <c r="N25" t="n">
-        <v>4401.660658170363</v>
+        <v>1119.672398695714</v>
       </c>
       <c r="O25" t="n">
-        <v>4659.768310517625</v>
+        <v>1377.780051042976</v>
       </c>
       <c r="P25" t="n">
-        <v>4861.278126030831</v>
+        <v>1579.289866556182</v>
       </c>
       <c r="Q25" t="n">
-        <v>4921.219230077076</v>
+        <v>1639.230970602427</v>
       </c>
       <c r="R25" t="n">
-        <v>4921.219230077076</v>
+        <v>1639.230970602427</v>
       </c>
       <c r="S25" t="n">
-        <v>4730.404733908032</v>
+        <v>1582.116946696202</v>
       </c>
       <c r="T25" t="n">
-        <v>4730.404733908032</v>
+        <v>1582.116946696202</v>
       </c>
       <c r="U25" t="n">
-        <v>4445.003505804544</v>
+        <v>1296.715718592714</v>
       </c>
       <c r="V25" t="n">
-        <v>4179.024160625368</v>
+        <v>1030.736373413539</v>
       </c>
       <c r="W25" t="n">
-        <v>4179.024160625368</v>
+        <v>1030.736373413539</v>
       </c>
       <c r="X25" t="n">
-        <v>4179.024160625368</v>
+        <v>796.6560511965217</v>
       </c>
       <c r="Y25" t="n">
-        <v>4179.024160625368</v>
+        <v>573.5439900131651</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2417.736732269074</v>
+        <v>2495.655302203505</v>
       </c>
       <c r="C26" t="n">
-        <v>2024.561230772004</v>
+        <v>2102.479800706436</v>
       </c>
       <c r="D26" t="n">
         <v>1717.038671923104</v>
@@ -6229,16 +6229,16 @@
         <v>370.7848071927508</v>
       </c>
       <c r="K26" t="n">
-        <v>921.1723215234006</v>
+        <v>921.1723215234</v>
       </c>
       <c r="L26" t="n">
         <v>1651.947637318895</v>
       </c>
       <c r="M26" t="n">
-        <v>2462.163004334022</v>
+        <v>2462.163004334021</v>
       </c>
       <c r="N26" t="n">
-        <v>3258.464021245335</v>
+        <v>3258.464021245334</v>
       </c>
       <c r="O26" t="n">
         <v>3952.030863795682</v>
@@ -6259,19 +6259,19 @@
         <v>4572.91054482476</v>
       </c>
       <c r="U26" t="n">
-        <v>4317.280636455007</v>
+        <v>4395.199206389439</v>
       </c>
       <c r="V26" t="n">
-        <v>3975.173827158525</v>
+        <v>4053.092397092957</v>
       </c>
       <c r="W26" t="n">
-        <v>3604.174792126813</v>
+        <v>3682.093362061245</v>
       </c>
       <c r="X26" t="n">
-        <v>3214.72218705987</v>
+        <v>3292.640756994301</v>
       </c>
       <c r="Y26" t="n">
-        <v>2818.231477980471</v>
+        <v>2896.150047914902</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>287.6029548665574</v>
       </c>
       <c r="K27" t="n">
-        <v>328.9067760860088</v>
+        <v>737.3468881282353</v>
       </c>
       <c r="L27" t="n">
-        <v>987.2803419612037</v>
+        <v>1076.951829147158</v>
       </c>
       <c r="M27" t="n">
-        <v>1513.924025494443</v>
+        <v>1189.480662315197</v>
       </c>
       <c r="N27" t="n">
-        <v>1638.796781231682</v>
+        <v>1314.353418052436</v>
       </c>
       <c r="O27" t="n">
-        <v>1738.588089979069</v>
+        <v>1414.144726799823</v>
       </c>
       <c r="P27" t="n">
-        <v>2297.946819835421</v>
+        <v>1973.503456656176</v>
       </c>
       <c r="Q27" t="n">
         <v>2310.637902766104</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>747.3868146731768</v>
+        <v>98.42438460154152</v>
       </c>
       <c r="C28" t="n">
-        <v>577.181696739166</v>
+        <v>98.42438460154152</v>
       </c>
       <c r="D28" t="n">
-        <v>421.5485836416808</v>
+        <v>98.42438460154152</v>
       </c>
       <c r="E28" t="n">
-        <v>265.9897715008833</v>
+        <v>98.42438460154152</v>
       </c>
       <c r="F28" t="n">
-        <v>265.9897715008833</v>
+        <v>98.42438460154152</v>
       </c>
       <c r="G28" t="n">
         <v>98.42438460154152</v>
@@ -6408,28 +6408,28 @@
         <v>1639.230970602427</v>
       </c>
       <c r="R28" t="n">
-        <v>1546.294953853166</v>
+        <v>1639.230970602427</v>
       </c>
       <c r="S28" t="n">
-        <v>1355.480457684122</v>
+        <v>1623.104308907258</v>
       </c>
       <c r="T28" t="n">
-        <v>1122.703892130265</v>
+        <v>1390.327743353401</v>
       </c>
       <c r="U28" t="n">
-        <v>1122.703892130265</v>
+        <v>1104.926515249913</v>
       </c>
       <c r="V28" t="n">
-        <v>1122.703892130265</v>
+        <v>838.9471700707375</v>
       </c>
       <c r="W28" t="n">
-        <v>839.3734900614425</v>
+        <v>555.616768001915</v>
       </c>
       <c r="X28" t="n">
-        <v>839.3734900614425</v>
+        <v>321.5364457848981</v>
       </c>
       <c r="Y28" t="n">
-        <v>747.3868146731768</v>
+        <v>98.42438460154152</v>
       </c>
     </row>
     <row r="29">
@@ -6472,16 +6472,16 @@
         <v>1651.225147082345</v>
       </c>
       <c r="M29" t="n">
-        <v>2426.038492506514</v>
+        <v>2461.440514097472</v>
       </c>
       <c r="N29" t="n">
-        <v>3222.339509417827</v>
+        <v>3257.741531008784</v>
       </c>
       <c r="O29" t="n">
-        <v>3915.906351968174</v>
+        <v>3951.308373559132</v>
       </c>
       <c r="P29" t="n">
-        <v>4480.473479294777</v>
+        <v>4515.875500885734</v>
       </c>
       <c r="Q29" t="n">
         <v>4827.811134116216</v>
@@ -6496,7 +6496,7 @@
         <v>4536.786032997253</v>
       </c>
       <c r="U29" t="n">
-        <v>4281.1561246275</v>
+        <v>4394.476716152889</v>
       </c>
       <c r="V29" t="n">
         <v>4052.369906856407</v>
@@ -6551,19 +6551,19 @@
         <v>986.5578517246536</v>
       </c>
       <c r="M30" t="n">
-        <v>1818.321585348192</v>
+        <v>1099.086684892693</v>
       </c>
       <c r="N30" t="n">
-        <v>1943.194341085432</v>
+        <v>1313.630927815886</v>
       </c>
       <c r="O30" t="n">
-        <v>2256.244764367837</v>
+        <v>1413.422236563273</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.76959433667</v>
+        <v>1972.780966419625</v>
       </c>
       <c r="Q30" t="n">
-        <v>2336.460677267353</v>
+        <v>2309.915412529554</v>
       </c>
       <c r="R30" t="n">
         <v>2336.460677267353</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>477.9302846168574</v>
+        <v>377.6516117180598</v>
       </c>
       <c r="C31" t="n">
-        <v>307.7251666828466</v>
+        <v>377.6516117180598</v>
       </c>
       <c r="D31" t="n">
-        <v>307.7251666828466</v>
+        <v>377.6516117180598</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7251666828466</v>
+        <v>377.6516117180598</v>
       </c>
       <c r="F31" t="n">
-        <v>210.086224818718</v>
+        <v>377.6516117180598</v>
       </c>
       <c r="G31" t="n">
         <v>210.086224818718</v>
@@ -6645,28 +6645,28 @@
         <v>1638.508480365877</v>
       </c>
       <c r="R31" t="n">
-        <v>1638.508480365877</v>
+        <v>1545.572463616616</v>
       </c>
       <c r="S31" t="n">
-        <v>1638.508480365877</v>
+        <v>1354.757967447572</v>
       </c>
       <c r="T31" t="n">
-        <v>1405.73191481202</v>
+        <v>1121.981401893715</v>
       </c>
       <c r="U31" t="n">
-        <v>1120.330686708532</v>
+        <v>836.5801737902273</v>
       </c>
       <c r="V31" t="n">
-        <v>1120.330686708532</v>
+        <v>570.6008286110515</v>
       </c>
       <c r="W31" t="n">
-        <v>1120.330686708532</v>
+        <v>570.6008286110515</v>
       </c>
       <c r="X31" t="n">
-        <v>886.2503644915154</v>
+        <v>377.6516117180598</v>
       </c>
       <c r="Y31" t="n">
-        <v>663.1383033081587</v>
+        <v>377.6516117180598</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2381.612220441566</v>
       </c>
       <c r="C32" t="n">
-        <v>2101.757310469886</v>
+        <v>1988.436718944497</v>
       </c>
       <c r="D32" t="n">
         <v>1716.316181686554</v>
@@ -6709,16 +6709,16 @@
         <v>1651.225147082345</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.440514097472</v>
+        <v>2426.038492506514</v>
       </c>
       <c r="N32" t="n">
-        <v>3257.741531008784</v>
+        <v>3222.339509417827</v>
       </c>
       <c r="O32" t="n">
-        <v>3951.308373559132</v>
+        <v>3915.906351968174</v>
       </c>
       <c r="P32" t="n">
-        <v>4515.875500885734</v>
+        <v>4480.473479294777</v>
       </c>
       <c r="Q32" t="n">
         <v>4827.811134116216</v>
@@ -6779,28 +6779,28 @@
         <v>97.70189436499138</v>
       </c>
       <c r="J33" t="n">
-        <v>140.141079381461</v>
+        <v>286.8804646300072</v>
       </c>
       <c r="K33" t="n">
-        <v>181.4449006009125</v>
+        <v>736.6243978916851</v>
       </c>
       <c r="L33" t="n">
-        <v>267.092637189445</v>
+        <v>1076.229338910608</v>
       </c>
       <c r="M33" t="n">
-        <v>1098.856370812984</v>
+        <v>1188.758172078647</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.729126550223</v>
+        <v>1313.630927815886</v>
       </c>
       <c r="O33" t="n">
-        <v>1931.801401188591</v>
+        <v>1413.422236563273</v>
       </c>
       <c r="P33" t="n">
-        <v>1999.326231157425</v>
+        <v>1972.780966419625</v>
       </c>
       <c r="Q33" t="n">
-        <v>2336.460677267353</v>
+        <v>2309.915412529554</v>
       </c>
       <c r="R33" t="n">
         <v>2336.460677267353</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3606.028138039224</v>
+        <v>523.0452727032302</v>
       </c>
       <c r="C34" t="n">
-        <v>3606.028138039224</v>
+        <v>523.0452727032302</v>
       </c>
       <c r="D34" t="n">
-        <v>3606.028138039224</v>
+        <v>367.412159605745</v>
       </c>
       <c r="E34" t="n">
-        <v>3606.028138039224</v>
+        <v>367.412159605745</v>
       </c>
       <c r="F34" t="n">
-        <v>3606.028138039224</v>
+        <v>210.086224818718</v>
       </c>
       <c r="G34" t="n">
-        <v>3606.028138039224</v>
+        <v>210.086224818718</v>
       </c>
       <c r="H34" t="n">
-        <v>3456.672462702409</v>
+        <v>210.086224818718</v>
       </c>
       <c r="I34" t="n">
-        <v>3344.288132248682</v>
+        <v>97.70189436499138</v>
       </c>
       <c r="J34" t="n">
-        <v>3362.234240372964</v>
+        <v>115.6480024892733</v>
       </c>
       <c r="K34" t="n">
-        <v>3522.487655177592</v>
+        <v>275.9014172939014</v>
       </c>
       <c r="L34" t="n">
-        <v>3786.963814879475</v>
+        <v>540.377576995784</v>
       </c>
       <c r="M34" t="n">
-        <v>4079.058837475758</v>
+        <v>832.4725995920662</v>
       </c>
       <c r="N34" t="n">
-        <v>4365.536146342855</v>
+        <v>1118.949908459164</v>
       </c>
       <c r="O34" t="n">
-        <v>4623.643798690117</v>
+        <v>1377.057560806426</v>
       </c>
       <c r="P34" t="n">
-        <v>4825.153614203324</v>
+        <v>1578.567376319632</v>
       </c>
       <c r="Q34" t="n">
-        <v>4885.094718249568</v>
+        <v>1638.508480365877</v>
       </c>
       <c r="R34" t="n">
-        <v>4792.158701500308</v>
+        <v>1638.508480365877</v>
       </c>
       <c r="S34" t="n">
-        <v>4601.344205331264</v>
+        <v>1447.693984196833</v>
       </c>
       <c r="T34" t="n">
-        <v>4368.567639777407</v>
+        <v>1447.693984196833</v>
       </c>
       <c r="U34" t="n">
-        <v>4368.567639777407</v>
+        <v>1162.292756093345</v>
       </c>
       <c r="V34" t="n">
-        <v>4102.588294598231</v>
+        <v>896.3134109141694</v>
       </c>
       <c r="W34" t="n">
-        <v>3819.257892529409</v>
+        <v>896.3134109141694</v>
       </c>
       <c r="X34" t="n">
-        <v>3606.028138039224</v>
+        <v>746.1573338865869</v>
       </c>
       <c r="Y34" t="n">
-        <v>3606.028138039224</v>
+        <v>523.0452727032302</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1336.803337077544</v>
+        <v>1267.540994012259</v>
       </c>
       <c r="C35" t="n">
-        <v>1336.803337077544</v>
+        <v>1267.540994012259</v>
       </c>
       <c r="D35" t="n">
-        <v>951.3622082942113</v>
+        <v>1180.573411511296</v>
       </c>
       <c r="E35" t="n">
-        <v>548.7786834107558</v>
+        <v>777.9898866278404</v>
       </c>
       <c r="F35" t="n">
-        <v>131.8842449407335</v>
+        <v>361.0954481578182</v>
       </c>
       <c r="G35" t="n">
-        <v>131.8842449407335</v>
+        <v>361.0954481578182</v>
       </c>
       <c r="H35" t="n">
-        <v>131.8842449407335</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="I35" t="n">
-        <v>52.73542984843207</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="J35" t="n">
-        <v>63.9430399678906</v>
+        <v>325.0958524396414</v>
       </c>
       <c r="K35" t="n">
-        <v>614.3305542985404</v>
+        <v>448.9261534485847</v>
       </c>
       <c r="L35" t="n">
-        <v>1266.931498672887</v>
+        <v>534.6654894923636</v>
       </c>
       <c r="M35" t="n">
-        <v>1826.444512391111</v>
+        <v>1187.26643386671</v>
       </c>
       <c r="N35" t="n">
-        <v>1947.306939240555</v>
+        <v>1839.867378241057</v>
       </c>
       <c r="O35" t="n">
-        <v>2052.765981848719</v>
+        <v>2492.468322615404</v>
       </c>
       <c r="P35" t="n">
-        <v>2617.333109175322</v>
+        <v>2560.049525041969</v>
       </c>
       <c r="Q35" t="n">
-        <v>2636.771492421603</v>
+        <v>2579.487908288251</v>
       </c>
       <c r="R35" t="n">
-        <v>2636.771492421603</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="S35" t="n">
-        <v>2636.771492421603</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="T35" t="n">
-        <v>2419.991512280383</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="U35" t="n">
-        <v>2419.991512280383</v>
+        <v>2381.14158405185</v>
       </c>
       <c r="V35" t="n">
-        <v>2419.991512280383</v>
+        <v>2039.034774755369</v>
       </c>
       <c r="W35" t="n">
-        <v>2133.78879186834</v>
+        <v>1668.035739723656</v>
       </c>
       <c r="X35" t="n">
-        <v>2133.78879186834</v>
+        <v>1668.035739723656</v>
       </c>
       <c r="Y35" t="n">
-        <v>1737.298082788941</v>
+        <v>1668.035739723656</v>
       </c>
     </row>
     <row r="36">
@@ -6992,58 +6992,58 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>815.0645945390256</v>
+        <v>815.0645945390257</v>
       </c>
       <c r="C36" t="n">
-        <v>664.4103640991178</v>
+        <v>664.4103640991179</v>
       </c>
       <c r="D36" t="n">
-        <v>534.3213967205982</v>
+        <v>534.3213967205983</v>
       </c>
       <c r="E36" t="n">
-        <v>397.8749058314859</v>
+        <v>397.874905831486</v>
       </c>
       <c r="F36" t="n">
-        <v>273.4430997146177</v>
+        <v>273.4430997146178</v>
       </c>
       <c r="G36" t="n">
         <v>154.2047209505359</v>
       </c>
       <c r="H36" t="n">
-        <v>73.8406775302867</v>
+        <v>73.84067753028671</v>
       </c>
       <c r="I36" t="n">
-        <v>52.73542984843207</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="J36" t="n">
-        <v>52.73542984843207</v>
+        <v>241.9140001134479</v>
       </c>
       <c r="K36" t="n">
-        <v>502.47936311011</v>
+        <v>691.6579333751258</v>
       </c>
       <c r="L36" t="n">
-        <v>1021.913850382259</v>
+        <v>1031.262874394049</v>
       </c>
       <c r="M36" t="n">
-        <v>1134.442683550298</v>
+        <v>1143.791707562088</v>
       </c>
       <c r="N36" t="n">
-        <v>1787.043627924645</v>
+        <v>1268.664463299327</v>
       </c>
       <c r="O36" t="n">
-        <v>1886.834936672032</v>
+        <v>1368.455772046714</v>
       </c>
       <c r="P36" t="n">
-        <v>1954.359766640865</v>
+        <v>1927.814501903066</v>
       </c>
       <c r="Q36" t="n">
-        <v>2291.494212750794</v>
+        <v>2264.948948012995</v>
       </c>
       <c r="R36" t="n">
         <v>2291.494212750794</v>
       </c>
       <c r="S36" t="n">
-        <v>2171.821407842624</v>
+        <v>2171.821407842625</v>
       </c>
       <c r="T36" t="n">
         <v>1998.148572321206</v>
@@ -7061,7 +7061,7 @@
         <v>1146.17514590448</v>
       </c>
       <c r="Y36" t="n">
-        <v>966.860928979987</v>
+        <v>966.8609289799871</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1682.596233897629</v>
+        <v>633.6376203274685</v>
       </c>
       <c r="C37" t="n">
-        <v>1682.596233897629</v>
+        <v>633.6376203274685</v>
       </c>
       <c r="D37" t="n">
-        <v>1682.596233897629</v>
+        <v>478.0045072299832</v>
       </c>
       <c r="E37" t="n">
-        <v>1682.596233897629</v>
+        <v>322.4456950891857</v>
       </c>
       <c r="F37" t="n">
-        <v>1525.270299110602</v>
+        <v>165.1197603021587</v>
       </c>
       <c r="G37" t="n">
-        <v>1357.70491221126</v>
+        <v>165.1197603021587</v>
       </c>
       <c r="H37" t="n">
-        <v>1208.349236874445</v>
+        <v>165.1197603021587</v>
       </c>
       <c r="I37" t="n">
-        <v>1095.964906420718</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="J37" t="n">
-        <v>1113.911014545</v>
+        <v>70.68153797271404</v>
       </c>
       <c r="K37" t="n">
-        <v>1274.164429349628</v>
+        <v>230.9349527773421</v>
       </c>
       <c r="L37" t="n">
-        <v>1538.64058905151</v>
+        <v>495.4111124792246</v>
       </c>
       <c r="M37" t="n">
-        <v>1830.735611647793</v>
+        <v>787.5061350755069</v>
       </c>
       <c r="N37" t="n">
-        <v>2117.21292051489</v>
+        <v>1073.983443942604</v>
       </c>
       <c r="O37" t="n">
-        <v>2375.320572862152</v>
+        <v>1332.091096289867</v>
       </c>
       <c r="P37" t="n">
-        <v>2576.830388375359</v>
+        <v>1533.600911803073</v>
       </c>
       <c r="Q37" t="n">
-        <v>2636.771492421603</v>
+        <v>1593.542015849318</v>
       </c>
       <c r="R37" t="n">
-        <v>2636.771492421603</v>
+        <v>1500.605999100057</v>
       </c>
       <c r="S37" t="n">
-        <v>2484.104429623796</v>
+        <v>1500.605999100057</v>
       </c>
       <c r="T37" t="n">
-        <v>2251.327864069939</v>
+        <v>1267.8294335462</v>
       </c>
       <c r="U37" t="n">
-        <v>1965.926635966451</v>
+        <v>982.4282054427122</v>
       </c>
       <c r="V37" t="n">
-        <v>1965.926635966451</v>
+        <v>982.4282054427122</v>
       </c>
       <c r="W37" t="n">
-        <v>1682.596233897629</v>
+        <v>982.4282054427122</v>
       </c>
       <c r="X37" t="n">
-        <v>1682.596233897629</v>
+        <v>982.4282054427122</v>
       </c>
       <c r="Y37" t="n">
-        <v>1682.596233897629</v>
+        <v>818.8456390187698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>504.2880296453132</v>
+        <v>1450.333432563865</v>
       </c>
       <c r="C38" t="n">
-        <v>111.1125281482438</v>
+        <v>1450.333432563865</v>
       </c>
       <c r="D38" t="n">
-        <v>52.73542984843207</v>
+        <v>1450.333432563865</v>
       </c>
       <c r="E38" t="n">
-        <v>52.73542984843207</v>
+        <v>1047.749907680409</v>
       </c>
       <c r="F38" t="n">
-        <v>52.73542984843207</v>
+        <v>772.7229387242153</v>
       </c>
       <c r="G38" t="n">
-        <v>52.73542984843207</v>
+        <v>361.0954481578182</v>
       </c>
       <c r="H38" t="n">
-        <v>52.73542984843207</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="I38" t="n">
-        <v>52.73542984843207</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="J38" t="n">
         <v>325.0958524396414</v>
@@ -7183,43 +7183,43 @@
         <v>1027.474135969731</v>
       </c>
       <c r="M38" t="n">
-        <v>1143.460801858527</v>
+        <v>1680.075080344078</v>
       </c>
       <c r="N38" t="n">
-        <v>1796.061746232874</v>
+        <v>2332.676024718425</v>
       </c>
       <c r="O38" t="n">
-        <v>2052.765981848719</v>
+        <v>2438.135067326588</v>
       </c>
       <c r="P38" t="n">
         <v>2617.333109175322</v>
       </c>
       <c r="Q38" t="n">
-        <v>2636.771492421603</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="R38" t="n">
-        <v>2636.771492421603</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="S38" t="n">
-        <v>2505.242787310508</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="T38" t="n">
-        <v>2288.462807169287</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="U38" t="n">
-        <v>2032.832898799534</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="V38" t="n">
-        <v>1690.726089503052</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="W38" t="n">
-        <v>1690.726089503052</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="X38" t="n">
-        <v>1301.273484436109</v>
+        <v>2247.318887354661</v>
       </c>
       <c r="Y38" t="n">
-        <v>904.7827753567101</v>
+        <v>1850.828178275262</v>
       </c>
     </row>
     <row r="39">
@@ -7229,58 +7229,58 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>815.0645945390256</v>
+        <v>815.0645945390257</v>
       </c>
       <c r="C39" t="n">
-        <v>664.4103640991178</v>
+        <v>664.4103640991179</v>
       </c>
       <c r="D39" t="n">
-        <v>534.3213967205982</v>
+        <v>534.3213967205983</v>
       </c>
       <c r="E39" t="n">
-        <v>397.8749058314859</v>
+        <v>397.874905831486</v>
       </c>
       <c r="F39" t="n">
-        <v>273.4430997146177</v>
+        <v>273.4430997146178</v>
       </c>
       <c r="G39" t="n">
         <v>154.2047209505359</v>
       </c>
       <c r="H39" t="n">
-        <v>73.8406775302867</v>
+        <v>73.84067753028671</v>
       </c>
       <c r="I39" t="n">
-        <v>52.73542984843207</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="J39" t="n">
-        <v>52.73542984843207</v>
+        <v>241.9140001134479</v>
       </c>
       <c r="K39" t="n">
-        <v>94.03925106788355</v>
+        <v>691.6579333751258</v>
       </c>
       <c r="L39" t="n">
-        <v>746.6401954422304</v>
+        <v>1031.262874394049</v>
       </c>
       <c r="M39" t="n">
-        <v>859.1690286102694</v>
+        <v>1143.791707562088</v>
       </c>
       <c r="N39" t="n">
-        <v>1511.769972984616</v>
+        <v>1268.664463299327</v>
       </c>
       <c r="O39" t="n">
-        <v>1719.444399963759</v>
+        <v>1368.455772046714</v>
       </c>
       <c r="P39" t="n">
-        <v>2278.803129820111</v>
+        <v>1927.814501903066</v>
       </c>
       <c r="Q39" t="n">
-        <v>2291.494212750794</v>
+        <v>2264.948948012995</v>
       </c>
       <c r="R39" t="n">
         <v>2291.494212750794</v>
       </c>
       <c r="S39" t="n">
-        <v>2171.821407842624</v>
+        <v>2171.821407842625</v>
       </c>
       <c r="T39" t="n">
         <v>1998.148572321206</v>
@@ -7298,7 +7298,7 @@
         <v>1146.17514590448</v>
       </c>
       <c r="Y39" t="n">
-        <v>966.860928979987</v>
+        <v>966.8609289799871</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1378.469455347216</v>
+        <v>68.86209154360122</v>
       </c>
       <c r="C40" t="n">
-        <v>1208.349236874445</v>
+        <v>68.86209154360122</v>
       </c>
       <c r="D40" t="n">
-        <v>1208.349236874445</v>
+        <v>68.86209154360122</v>
       </c>
       <c r="E40" t="n">
-        <v>1208.349236874445</v>
+        <v>68.86209154360122</v>
       </c>
       <c r="F40" t="n">
-        <v>1208.349236874445</v>
+        <v>68.86209154360122</v>
       </c>
       <c r="G40" t="n">
-        <v>1208.349236874445</v>
+        <v>68.86209154360122</v>
       </c>
       <c r="H40" t="n">
-        <v>1208.349236874445</v>
+        <v>68.86209154360122</v>
       </c>
       <c r="I40" t="n">
-        <v>1095.964906420718</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="J40" t="n">
-        <v>1113.911014545</v>
+        <v>70.68153797271404</v>
       </c>
       <c r="K40" t="n">
-        <v>1274.164429349628</v>
+        <v>230.9349527773421</v>
       </c>
       <c r="L40" t="n">
-        <v>1538.64058905151</v>
+        <v>495.4111124792246</v>
       </c>
       <c r="M40" t="n">
-        <v>1830.735611647793</v>
+        <v>787.5061350755069</v>
       </c>
       <c r="N40" t="n">
-        <v>2117.21292051489</v>
+        <v>1073.983443942604</v>
       </c>
       <c r="O40" t="n">
-        <v>2375.320572862152</v>
+        <v>1332.091096289867</v>
       </c>
       <c r="P40" t="n">
-        <v>2576.830388375359</v>
+        <v>1533.600911803073</v>
       </c>
       <c r="Q40" t="n">
-        <v>2636.771492421603</v>
+        <v>1593.542015849318</v>
       </c>
       <c r="R40" t="n">
-        <v>2636.771492421603</v>
+        <v>1593.542015849318</v>
       </c>
       <c r="S40" t="n">
-        <v>2445.956996252559</v>
+        <v>1593.542015849318</v>
       </c>
       <c r="T40" t="n">
-        <v>2213.180430698701</v>
+        <v>1360.76545029546</v>
       </c>
       <c r="U40" t="n">
-        <v>1927.779202595214</v>
+        <v>1075.364222191973</v>
       </c>
       <c r="V40" t="n">
-        <v>1661.799857416038</v>
+        <v>809.3848770127971</v>
       </c>
       <c r="W40" t="n">
-        <v>1378.469455347216</v>
+        <v>526.0544749439748</v>
       </c>
       <c r="X40" t="n">
-        <v>1378.469455347216</v>
+        <v>291.9741527269579</v>
       </c>
       <c r="Y40" t="n">
-        <v>1378.469455347216</v>
+        <v>68.86209154360122</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1452.627424149959</v>
+        <v>1959.190041791698</v>
       </c>
       <c r="C41" t="n">
-        <v>1059.451922652889</v>
+        <v>1566.014540294628</v>
       </c>
       <c r="D41" t="n">
-        <v>674.0107938695569</v>
+        <v>1180.573411511296</v>
       </c>
       <c r="E41" t="n">
-        <v>674.0107938695569</v>
+        <v>777.9898866278404</v>
       </c>
       <c r="F41" t="n">
-        <v>257.1163553995347</v>
+        <v>361.0954481578182</v>
       </c>
       <c r="G41" t="n">
-        <v>52.73542984843207</v>
+        <v>361.0954481578182</v>
       </c>
       <c r="H41" t="n">
-        <v>52.73542984843207</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="I41" t="n">
-        <v>52.73542984843207</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="J41" t="n">
-        <v>63.9430399678906</v>
+        <v>71.24954271768485</v>
       </c>
       <c r="K41" t="n">
-        <v>113.7203791236335</v>
+        <v>121.0268818734277</v>
       </c>
       <c r="L41" t="n">
-        <v>199.4597151674124</v>
+        <v>206.7662179172066</v>
       </c>
       <c r="M41" t="n">
-        <v>419.664821524868</v>
+        <v>859.3671622915535</v>
       </c>
       <c r="N41" t="n">
-        <v>1072.265765899215</v>
+        <v>1511.9681066659</v>
       </c>
       <c r="O41" t="n">
-        <v>1724.866710273562</v>
+        <v>2164.569051040247</v>
       </c>
       <c r="P41" t="n">
-        <v>2289.433837600165</v>
+        <v>2232.150253466813</v>
       </c>
       <c r="Q41" t="n">
-        <v>2636.771492421603</v>
+        <v>2579.487908288251</v>
       </c>
       <c r="R41" t="n">
-        <v>2636.771492421603</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="S41" t="n">
-        <v>2505.242787310508</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="T41" t="n">
-        <v>2505.242787310508</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="U41" t="n">
-        <v>2249.612878940754</v>
+        <v>2381.14158405185</v>
       </c>
       <c r="V41" t="n">
-        <v>2249.612878940754</v>
+        <v>2381.14158405185</v>
       </c>
       <c r="W41" t="n">
-        <v>2249.612878940754</v>
+        <v>2381.14158405185</v>
       </c>
       <c r="X41" t="n">
-        <v>2249.612878940754</v>
+        <v>1991.688978984907</v>
       </c>
       <c r="Y41" t="n">
-        <v>1853.122169861356</v>
+        <v>1991.688978984907</v>
       </c>
     </row>
     <row r="42">
@@ -7466,58 +7466,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>815.0645945390256</v>
+        <v>815.0645945390257</v>
       </c>
       <c r="C42" t="n">
-        <v>664.4103640991178</v>
+        <v>664.4103640991179</v>
       </c>
       <c r="D42" t="n">
-        <v>534.3213967205982</v>
+        <v>534.3213967205983</v>
       </c>
       <c r="E42" t="n">
-        <v>397.8749058314859</v>
+        <v>397.874905831486</v>
       </c>
       <c r="F42" t="n">
-        <v>273.4430997146177</v>
+        <v>273.4430997146178</v>
       </c>
       <c r="G42" t="n">
         <v>154.2047209505359</v>
       </c>
       <c r="H42" t="n">
-        <v>73.8406775302867</v>
+        <v>73.84067753028671</v>
       </c>
       <c r="I42" t="n">
-        <v>52.73542984843207</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="J42" t="n">
-        <v>52.73542984843207</v>
+        <v>241.9140001134479</v>
       </c>
       <c r="K42" t="n">
-        <v>94.03925106788355</v>
+        <v>691.6579333751258</v>
       </c>
       <c r="L42" t="n">
-        <v>253.4754667282371</v>
+        <v>1031.262874394049</v>
       </c>
       <c r="M42" t="n">
-        <v>906.0764111025838</v>
+        <v>1143.791707562088</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.677355476931</v>
+        <v>1268.664463299327</v>
       </c>
       <c r="O42" t="n">
-        <v>2211.278299851278</v>
+        <v>1368.455772046714</v>
       </c>
       <c r="P42" t="n">
-        <v>2278.803129820111</v>
+        <v>1927.814501903066</v>
       </c>
       <c r="Q42" t="n">
-        <v>2291.494212750794</v>
+        <v>2264.948948012995</v>
       </c>
       <c r="R42" t="n">
         <v>2291.494212750794</v>
       </c>
       <c r="S42" t="n">
-        <v>2171.821407842624</v>
+        <v>2171.821407842625</v>
       </c>
       <c r="T42" t="n">
         <v>1998.148572321206</v>
@@ -7535,7 +7535,7 @@
         <v>1146.17514590448</v>
       </c>
       <c r="Y42" t="n">
-        <v>966.860928979987</v>
+        <v>966.8609289799871</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1008.37947004391</v>
+        <v>701.6978599200675</v>
       </c>
       <c r="C43" t="n">
-        <v>838.1743521098988</v>
+        <v>531.4927419860567</v>
       </c>
       <c r="D43" t="n">
-        <v>682.5412390124136</v>
+        <v>375.8596288885714</v>
       </c>
       <c r="E43" t="n">
-        <v>526.9824268716161</v>
+        <v>220.3008167477739</v>
       </c>
       <c r="F43" t="n">
-        <v>369.6564920845891</v>
+        <v>220.3008167477739</v>
       </c>
       <c r="G43" t="n">
-        <v>202.0911051852473</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="H43" t="n">
-        <v>52.73542984843207</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="I43" t="n">
-        <v>52.73542984843207</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="J43" t="n">
-        <v>70.68153797271403</v>
+        <v>70.68153797271404</v>
       </c>
       <c r="K43" t="n">
         <v>230.9349527773421</v>
@@ -7593,28 +7593,28 @@
         <v>1593.542015849318</v>
       </c>
       <c r="R43" t="n">
-        <v>1593.542015849318</v>
+        <v>1500.605999100057</v>
       </c>
       <c r="S43" t="n">
-        <v>1593.542015849318</v>
+        <v>1500.605999100057</v>
       </c>
       <c r="T43" t="n">
-        <v>1593.542015849318</v>
+        <v>1267.8294335462</v>
       </c>
       <c r="U43" t="n">
-        <v>1593.542015849318</v>
+        <v>982.4282054427122</v>
       </c>
       <c r="V43" t="n">
-        <v>1327.562670670142</v>
+        <v>924.8099211034241</v>
       </c>
       <c r="W43" t="n">
-        <v>1231.491531227266</v>
+        <v>924.8099211034241</v>
       </c>
       <c r="X43" t="n">
-        <v>1231.491531227266</v>
+        <v>924.8099211034241</v>
       </c>
       <c r="Y43" t="n">
-        <v>1008.37947004391</v>
+        <v>701.6978599200675</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1265.343154688423</v>
+        <v>1568.48196510474</v>
       </c>
       <c r="C44" t="n">
-        <v>872.1676531913531</v>
+        <v>1175.306463607671</v>
       </c>
       <c r="D44" t="n">
-        <v>872.1676531913531</v>
+        <v>1175.306463607671</v>
       </c>
       <c r="E44" t="n">
-        <v>469.5841283078976</v>
+        <v>772.7229387242153</v>
       </c>
       <c r="F44" t="n">
-        <v>131.8842449407335</v>
+        <v>772.7229387242153</v>
       </c>
       <c r="G44" t="n">
-        <v>131.8842449407335</v>
+        <v>361.0954481578182</v>
       </c>
       <c r="H44" t="n">
-        <v>131.8842449407335</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="I44" t="n">
-        <v>52.73542984843207</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="J44" t="n">
-        <v>325.0958524396414</v>
+        <v>63.94303996789061</v>
       </c>
       <c r="K44" t="n">
-        <v>875.4833667702911</v>
+        <v>486.4900310175526</v>
       </c>
       <c r="L44" t="n">
-        <v>1528.084311144638</v>
+        <v>1139.0909753919</v>
       </c>
       <c r="M44" t="n">
-        <v>2180.685255518985</v>
+        <v>1791.691919766246</v>
       </c>
       <c r="N44" t="n">
-        <v>2301.547682368429</v>
+        <v>2444.292864140593</v>
       </c>
       <c r="O44" t="n">
-        <v>2407.006724976593</v>
+        <v>2549.751906748757</v>
       </c>
       <c r="P44" t="n">
         <v>2617.333109175322</v>
       </c>
       <c r="Q44" t="n">
-        <v>2636.771492421603</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="R44" t="n">
-        <v>2636.771492421603</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="S44" t="n">
-        <v>2505.242787310508</v>
+        <v>2636.771492421604</v>
       </c>
       <c r="T44" t="n">
-        <v>2288.462807169287</v>
+        <v>2584.56351357315</v>
       </c>
       <c r="U44" t="n">
-        <v>2032.832898799534</v>
+        <v>2328.933605203396</v>
       </c>
       <c r="V44" t="n">
-        <v>2032.832898799534</v>
+        <v>2328.933605203396</v>
       </c>
       <c r="W44" t="n">
-        <v>1661.833863767821</v>
+        <v>1957.934570171683</v>
       </c>
       <c r="X44" t="n">
-        <v>1661.833863767821</v>
+        <v>1568.48196510474</v>
       </c>
       <c r="Y44" t="n">
-        <v>1265.343154688423</v>
+        <v>1568.48196510474</v>
       </c>
     </row>
     <row r="45">
@@ -7703,58 +7703,58 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>815.0645945390256</v>
+        <v>815.0645945390257</v>
       </c>
       <c r="C45" t="n">
-        <v>664.4103640991178</v>
+        <v>664.4103640991179</v>
       </c>
       <c r="D45" t="n">
-        <v>534.3213967205982</v>
+        <v>534.3213967205983</v>
       </c>
       <c r="E45" t="n">
-        <v>397.8749058314859</v>
+        <v>397.874905831486</v>
       </c>
       <c r="F45" t="n">
-        <v>273.4430997146177</v>
+        <v>273.4430997146178</v>
       </c>
       <c r="G45" t="n">
         <v>154.2047209505359</v>
       </c>
       <c r="H45" t="n">
-        <v>73.8406775302867</v>
+        <v>73.84067753028671</v>
       </c>
       <c r="I45" t="n">
-        <v>52.73542984843207</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="J45" t="n">
         <v>241.9140001134479</v>
       </c>
       <c r="K45" t="n">
-        <v>283.2178213328994</v>
+        <v>691.6579333751258</v>
       </c>
       <c r="L45" t="n">
-        <v>935.8187657072463</v>
+        <v>1031.262874394049</v>
       </c>
       <c r="M45" t="n">
-        <v>1048.347598875285</v>
+        <v>1143.791707562088</v>
       </c>
       <c r="N45" t="n">
-        <v>1173.220354612524</v>
+        <v>1268.664463299327</v>
       </c>
       <c r="O45" t="n">
-        <v>1719.444399963759</v>
+        <v>1368.455772046714</v>
       </c>
       <c r="P45" t="n">
-        <v>2278.803129820111</v>
+        <v>1927.814501903066</v>
       </c>
       <c r="Q45" t="n">
-        <v>2291.494212750794</v>
+        <v>2264.948948012995</v>
       </c>
       <c r="R45" t="n">
         <v>2291.494212750794</v>
       </c>
       <c r="S45" t="n">
-        <v>2171.821407842624</v>
+        <v>2171.821407842625</v>
       </c>
       <c r="T45" t="n">
         <v>1998.148572321206</v>
@@ -7772,7 +7772,7 @@
         <v>1146.17514590448</v>
       </c>
       <c r="Y45" t="n">
-        <v>966.860928979987</v>
+        <v>966.8609289799871</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>378.5736608799281</v>
+        <v>809.5718752593534</v>
       </c>
       <c r="C46" t="n">
-        <v>208.3685429459173</v>
+        <v>639.3667573253426</v>
       </c>
       <c r="D46" t="n">
-        <v>52.73542984843207</v>
+        <v>639.3667573253426</v>
       </c>
       <c r="E46" t="n">
-        <v>52.73542984843207</v>
+        <v>639.3667573253426</v>
       </c>
       <c r="F46" t="n">
-        <v>52.73542984843207</v>
+        <v>482.0408225383156</v>
       </c>
       <c r="G46" t="n">
-        <v>52.73542984843207</v>
+        <v>314.4754356389739</v>
       </c>
       <c r="H46" t="n">
-        <v>52.73542984843207</v>
+        <v>165.1197603021587</v>
       </c>
       <c r="I46" t="n">
-        <v>52.73542984843207</v>
+        <v>52.73542984843208</v>
       </c>
       <c r="J46" t="n">
-        <v>70.68153797271403</v>
+        <v>70.68153797271404</v>
       </c>
       <c r="K46" t="n">
         <v>230.9349527773421</v>
@@ -7833,25 +7833,25 @@
         <v>1593.542015849318</v>
       </c>
       <c r="S46" t="n">
-        <v>1593.542015849318</v>
+        <v>1402.727519680273</v>
       </c>
       <c r="T46" t="n">
-        <v>1447.364958448431</v>
+        <v>1169.950954126416</v>
       </c>
       <c r="U46" t="n">
-        <v>1161.963730344943</v>
+        <v>1169.950954126416</v>
       </c>
       <c r="V46" t="n">
-        <v>895.9843851657674</v>
+        <v>1169.950954126416</v>
       </c>
       <c r="W46" t="n">
-        <v>612.653983096945</v>
+        <v>1169.950954126416</v>
       </c>
       <c r="X46" t="n">
-        <v>378.5736608799281</v>
+        <v>1032.68393644271</v>
       </c>
       <c r="Y46" t="n">
-        <v>378.5736608799281</v>
+        <v>809.5718752593534</v>
       </c>
     </row>
   </sheetData>
@@ -8221,19 +8221,19 @@
         <v>152.0895311361142</v>
       </c>
       <c r="L5" t="n">
-        <v>162.2792976873685</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>158.7561795546041</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>157.7847252357972</v>
+        <v>158.1496192946609</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>158.2300713221095</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>159.332575197802</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>91.11069123134648</v>
+        <v>91.47558529021019</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
@@ -8303,16 +8303,16 @@
         <v>99.09147481379507</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>101.4182500061888</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>94.03834675217979</v>
       </c>
       <c r="O6" t="n">
-        <v>101.7186868457657</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>96.1144927761915</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8376,19 +8376,19 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K7" t="n">
-        <v>83.85861781084799</v>
+        <v>92.88974576772483</v>
       </c>
       <c r="L7" t="n">
         <v>87.67503958280489</v>
       </c>
       <c r="M7" t="n">
-        <v>95.51122945380392</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N7" t="n">
         <v>92.02673185927841</v>
       </c>
       <c r="O7" t="n">
-        <v>99.02787795057465</v>
+        <v>95.20621988155845</v>
       </c>
       <c r="P7" t="n">
         <v>98.55433058882278</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>126.7109658992229</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>152.0895311361142</v>
       </c>
       <c r="L8" t="n">
-        <v>162.2792976873685</v>
+        <v>161.9144036285048</v>
       </c>
       <c r="M8" t="n">
-        <v>158.3912854957404</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>149.1184913377841</v>
@@ -8470,7 +8470,7 @@
         <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>159.332575197802</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>153.529826375269</v>
@@ -8543,16 +8543,16 @@
         <v>101.4182500061888</v>
       </c>
       <c r="N9" t="n">
-        <v>94.03834675217979</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>101.7186868457657</v>
+        <v>101.353792786902</v>
       </c>
       <c r="P9" t="n">
         <v>96.1144927761915</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>100.0192811127908</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8613,16 +8613,16 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K10" t="n">
-        <v>83.85861781084799</v>
+        <v>92.88974576772483</v>
       </c>
       <c r="L10" t="n">
-        <v>92.88450947066553</v>
+        <v>96.70616753968173</v>
       </c>
       <c r="M10" t="n">
-        <v>99.33288752282012</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N10" t="n">
-        <v>92.02673185927841</v>
+        <v>88.20507379026222</v>
       </c>
       <c r="O10" t="n">
         <v>89.9967499936978</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8701,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>449.028674969985</v>
+        <v>449.0286749699849</v>
       </c>
       <c r="O11" t="n">
-        <v>464.5876489510766</v>
+        <v>464.5876489510765</v>
       </c>
       <c r="P11" t="n">
-        <v>434.6740851587111</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>44.65540880654692</v>
+        <v>44.74417497876097</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>5.612550216880365</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>299.1554018555227</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>484.5990691729262</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>457.4464463653438</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>470.3126326488308</v>
+        <v>256.5224287175663</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
-        <v>44.20040618061034</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>484.5065444706571</v>
+        <v>484.506544470657</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>36.46409513435773</v>
+        <v>36.46409513435728</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>5.612550216880365</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>484.5990691729262</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>457.4464463653439</v>
+        <v>256.5224287175658</v>
       </c>
       <c r="N15" t="n">
-        <v>441.7474656364288</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
-        <v>44.20040618061034</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>453.9536860413465</v>
+        <v>453.9536860413464</v>
       </c>
       <c r="N17" t="n">
-        <v>449.028674969985</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>274.5134487503795</v>
+        <v>70.67781242717197</v>
       </c>
       <c r="P17" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
-        <v>44.65540880654692</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>5.612550216880365</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>256.5224287175657</v>
       </c>
       <c r="M18" t="n">
-        <v>457.4464463653439</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>444.977837709586</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>396.5234962280709</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>44.20040618061034</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>408.7546752237489</v>
       </c>
       <c r="L20" t="n">
-        <v>484.5065444706571</v>
+        <v>484.5065444706569</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>94.32630132966321</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>464.5876489510764</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>44.6554088065469</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,19 +9482,19 @@
         <v>5.612550216880351</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>484.5990691729262</v>
+        <v>331.8332285758673</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>444.977837709586</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>285.1347240818085</v>
+        <v>470.3126326488307</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9716,16 +9716,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>5.612550216880351</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>256.5224287175661</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>406.5027119192269</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>44.20040618061034</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>505.666843611017</v>
+        <v>505.6668436110165</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
@@ -9895,7 +9895,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294511</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9956,13 +9956,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>256.5224287175661</v>
       </c>
       <c r="M27" t="n">
-        <v>418.2978286517172</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10120,7 +10120,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
-        <v>665.4814944801747</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N29" t="n">
         <v>682.2612020826953</v>
@@ -10132,7 +10132,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>295.4517676608078</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10199,22 +10199,22 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>90.57725978379182</v>
       </c>
       <c r="O30" t="n">
-        <v>215.413247005069</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>44.20040618061034</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
-        <v>701.2411122488187</v>
+        <v>665.4814944801747</v>
       </c>
       <c r="N32" t="n">
         <v>682.2612020826953</v>
@@ -10369,7 +10369,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>295.4517676608078</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>48.48041386987997</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>256.5224287175656</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>44.20040618061034</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>74.80097156888931</v>
       </c>
       <c r="L35" t="n">
-        <v>572.5874831621899</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>448.0064119489163</v>
+        <v>542.0346247328794</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>537.1096136615179</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>552.6685876426094</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>44.6554088065469</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>5.612550216880351</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>438.1684350339564</v>
+        <v>256.522428717566</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>533.0587764011186</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>44.20040618061034</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>572.5874831621899</v>
+        <v>572.58748316219</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>542.0346247328794</v>
       </c>
       <c r="N38" t="n">
-        <v>537.1096136615178</v>
+        <v>537.1096136615179</v>
       </c>
       <c r="O38" t="n">
-        <v>152.7729222299806</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>112.7442822446148</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>5.612550216880351</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>572.680007864459</v>
+        <v>256.522428717566</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>533.0587764011187</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>108.9728466987427</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>44.20040618061034</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>7.380305807872972</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>105.2711519885447</v>
+        <v>542.0346247328794</v>
       </c>
       <c r="N41" t="n">
-        <v>537.1096136615178</v>
+        <v>537.1096136615179</v>
       </c>
       <c r="O41" t="n">
-        <v>552.6685876426093</v>
+        <v>552.6685876426094</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>44.6554088065469</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>5.612550216880351</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>74.53381724426366</v>
+        <v>256.522428717566</v>
       </c>
       <c r="M42" t="n">
-        <v>545.5273850568766</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>533.0587764011186</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>558.3935713403636</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>44.20040618061034</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>376.5350019130496</v>
       </c>
       <c r="L44" t="n">
-        <v>572.5874831621899</v>
+        <v>572.58748316219</v>
       </c>
       <c r="M44" t="n">
-        <v>542.0346247328793</v>
+        <v>542.0346247328794</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>537.1096136615179</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>144.1870522951151</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>572.680007864459</v>
+        <v>256.522428717566</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>450.9421581857042</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
-        <v>44.20040618061034</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>380.664247084097</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -23314,10 +23314,10 @@
         <v>214.6121803398083</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0736092860559</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>67.71868936693659</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23421,13 +23421,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.72679185316613</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>147.8621185834471</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>111.2604871491893</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>194.7965762372952</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23503,19 +23503,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>62.73495970535583</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>407.5112156607331</v>
       </c>
       <c r="H14" t="n">
         <v>305.2764181262922</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>78.3573269413784</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.2134180599845</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>214.6121803398083</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0736092860559</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>378.6226371734599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.8621185834471</v>
       </c>
       <c r="I16" t="n">
         <v>111.2604871491893</v>
@@ -23709,19 +23709,19 @@
         <v>230.4487998983186</v>
       </c>
       <c r="U16" t="n">
-        <v>181.0060501985688</v>
+        <v>282.5472158224526</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>110.1263434297199</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23740,19 +23740,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>178.453253346177</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>28.81532699098801</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2764181262922</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>78.3573269413784</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.8621185834471</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>92.00665658176814</v>
       </c>
       <c r="S19" t="n">
-        <v>139.4389336859831</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>230.4487998983186</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5472158224526</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>89.63046503754413</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>165.7794702735393</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>407.5112156607331</v>
       </c>
       <c r="H20" t="n">
         <v>305.2764181262922</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>130.2134180599845</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>214.6121803398083</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0736092860559</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>262.0764777565835</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>10.62581918801084</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>165.8897330303484</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.8621185834471</v>
       </c>
       <c r="I22" t="n">
-        <v>111.2604871491893</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>92.00665658176814</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>230.4487998983186</v>
       </c>
       <c r="U22" t="n">
         <v>282.5472158224526</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.730856822995861</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>77.13938423508722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>77.13938423508756</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>115.685824278395</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>165.8897330303484</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>111.2604871491893</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>92.00665658176814</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>132.3634675401911</v>
       </c>
       <c r="T25" t="n">
         <v>230.4487998983186</v>
@@ -24429,10 +24429,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>77.13938423508733</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>77.13938423508756</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.8897330303484</v>
       </c>
       <c r="H28" t="n">
         <v>147.8621185834471</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>92.00665658176814</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>172.9409561291366</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5472158224526</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.8141319371401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>112.1873856101357</v>
       </c>
       <c r="V29" t="n">
-        <v>112.1873856101351</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24849,10 +24849,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>59.09012299366943</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>165.8897330303484</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.8621185834471</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>92.00665658176814</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>188.906351207354</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.71979427078497</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>112.1873856101349</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>112.187385610135</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.8897330303484</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.8621185834471</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>92.00665658176814</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.4487998983186</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5472158224526</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>20.64206204956417</v>
+        <v>83.08500273754009</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>295.4888108195453</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>407.5112156607331</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2764181262922</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>78.3573269413784</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>130.2134180599845</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.6121803398083</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0736092860559</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>83.94835147347271</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.8897330303484</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.8621185834471</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>92.00665658176814</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>37.76595903752468</v>
+        <v>188.906351207354</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>58.93419981182015</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>323.7933901786853</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>140.44879481869</v>
       </c>
       <c r="G38" t="n">
-        <v>407.5112156607331</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2764181262922</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>78.3573269413784</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.2134180599845</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.6121803398083</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0736092860559</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -25551,7 +25551,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0.08405046662710447</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25569,7 +25569,7 @@
         <v>147.8621185834471</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>95.29509207097189</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>92.00665658176814</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>188.906351207354</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>364.3158504330057</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.1740993651416</v>
+        <v>407.5112156607331</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2764181262922</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>78.3573269413784</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.2134180599845</v>
       </c>
       <c r="T41" t="n">
         <v>214.6121803398083</v>
@@ -25693,10 +25693,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.8621185834471</v>
       </c>
       <c r="I43" t="n">
         <v>111.2604871491893</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>92.00665658176814</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>188.906351207354</v>
       </c>
       <c r="T43" t="n">
-        <v>230.4487998983186</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5472158224526</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>206.2774502314888</v>
       </c>
       <c r="W43" t="n">
-        <v>185.3866699996873</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>78.40260955182953</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>407.5112156607331</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2764181262922</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.3573269413784</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.2134180599845</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>162.9262812798385</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.8897330303484</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.8621185834471</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>111.2604871491893</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>92.00665658176814</v>
       </c>
       <c r="S46" t="n">
-        <v>188.906351207354</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>85.73351307144054</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5472158224526</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>95.84517148797784</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>526845.4056155785</v>
+        <v>526845.4056155784</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>526845.4056155784</v>
+        <v>526845.4056155783</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>526845.4056155785</v>
+        <v>526845.4056155783</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>526845.4056155783</v>
+        <v>526845.4056155784</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782626.2465910328</v>
+        <v>782626.2465910329</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782626.2465910328</v>
+        <v>782626.2465910329</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>779121.9770547365</v>
+        <v>779121.9770547366</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>561022.6813289723</v>
+        <v>561022.6813289726</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>575677.5082070946</v>
+        <v>575677.5082070944</v>
       </c>
       <c r="C2" t="n">
+        <v>576827.7126636822</v>
+      </c>
+      <c r="D2" t="n">
         <v>576827.7126636823</v>
       </c>
-      <c r="D2" t="n">
-        <v>576827.7126636824</v>
-      </c>
       <c r="E2" t="n">
-        <v>380336.3201580047</v>
+        <v>380336.3201580045</v>
       </c>
       <c r="F2" t="n">
+        <v>380336.3201580045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>380336.3201580045</v>
+      </c>
+      <c r="H2" t="n">
         <v>380336.3201580046</v>
       </c>
-      <c r="G2" t="n">
-        <v>380336.3201580046</v>
-      </c>
-      <c r="H2" t="n">
-        <v>380336.3201580047</v>
-      </c>
       <c r="I2" t="n">
-        <v>543242.2224580173</v>
+        <v>543242.2224580175</v>
       </c>
       <c r="J2" t="n">
-        <v>543242.2224580174</v>
+        <v>543242.2224580175</v>
       </c>
       <c r="K2" t="n">
-        <v>541010.3657304546</v>
+        <v>541010.3657304544</v>
       </c>
       <c r="L2" t="n">
         <v>541010.3657304542</v>
@@ -26349,10 +26349,10 @@
         <v>402103.7047557472</v>
       </c>
       <c r="N2" t="n">
-        <v>402103.7047557473</v>
+        <v>402103.7047557472</v>
       </c>
       <c r="O2" t="n">
-        <v>402103.7047557473</v>
+        <v>402103.7047557472</v>
       </c>
       <c r="P2" t="n">
         <v>402103.7047557473</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370028.2700183725</v>
+        <v>370028.2700183726</v>
       </c>
       <c r="C4" t="n">
+        <v>369502.3763690162</v>
+      </c>
+      <c r="D4" t="n">
         <v>369502.3763690161</v>
       </c>
-      <c r="D4" t="n">
-        <v>369502.3763690162</v>
-      </c>
       <c r="E4" t="n">
-        <v>75665.88592730883</v>
+        <v>75665.88592730882</v>
       </c>
       <c r="F4" t="n">
-        <v>75665.88592730883</v>
+        <v>75665.8859273088</v>
       </c>
       <c r="G4" t="n">
-        <v>75665.88592730882</v>
+        <v>75665.8859273088</v>
       </c>
       <c r="H4" t="n">
-        <v>75665.8859273088</v>
+        <v>75665.88592730879</v>
       </c>
       <c r="I4" t="n">
         <v>138307.618331469</v>
@@ -26450,16 +26450,16 @@
         <v>137449.4089607922</v>
       </c>
       <c r="M4" t="n">
-        <v>84036.03496340133</v>
+        <v>84036.03496340135</v>
       </c>
       <c r="N4" t="n">
+        <v>84036.03496340135</v>
+      </c>
+      <c r="O4" t="n">
         <v>84036.03496340134</v>
       </c>
-      <c r="O4" t="n">
-        <v>84036.03496340133</v>
-      </c>
       <c r="P4" t="n">
-        <v>84036.03496340133</v>
+        <v>84036.03496340135</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>34176.69257977811</v>
       </c>
       <c r="E5" t="n">
-        <v>42965.71001627662</v>
+        <v>42965.71001627661</v>
       </c>
       <c r="F5" t="n">
-        <v>42965.71001627662</v>
+        <v>42965.71001627661</v>
       </c>
       <c r="G5" t="n">
-        <v>42965.71001627662</v>
+        <v>42965.71001627661</v>
       </c>
       <c r="H5" t="n">
-        <v>42965.71001627663</v>
+        <v>42965.71001627661</v>
       </c>
       <c r="I5" t="n">
         <v>83044.63670108499</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>172021.6381887221</v>
+        <v>172017.3086209354</v>
       </c>
       <c r="C6" t="n">
-        <v>170230.9510105061</v>
+        <v>170230.2158316463</v>
       </c>
       <c r="D6" t="n">
-        <v>173148.6437148881</v>
+        <v>173147.9085360285</v>
       </c>
       <c r="E6" t="n">
-        <v>-209869.3858075142</v>
+        <v>-210484.1565879543</v>
       </c>
       <c r="F6" t="n">
-        <v>261704.7242144191</v>
+        <v>261089.9534339793</v>
       </c>
       <c r="G6" t="n">
-        <v>261704.7242144191</v>
+        <v>261089.9534339792</v>
       </c>
       <c r="H6" t="n">
-        <v>261704.7242144193</v>
+        <v>261089.9534339794</v>
       </c>
       <c r="I6" t="n">
-        <v>146596.739416402</v>
+        <v>146491.0495806499</v>
       </c>
       <c r="J6" t="n">
-        <v>321889.9674254634</v>
+        <v>321784.2775897114</v>
       </c>
       <c r="K6" t="n">
-        <v>321065.4126483555</v>
+        <v>320952.7482603295</v>
       </c>
       <c r="L6" t="n">
-        <v>321065.4126483551</v>
+        <v>320952.7482603292</v>
       </c>
       <c r="M6" t="n">
-        <v>269746.638703624</v>
+        <v>269199.8910000522</v>
       </c>
       <c r="N6" t="n">
-        <v>269746.6387036241</v>
+        <v>269199.8910000522</v>
       </c>
       <c r="O6" t="n">
-        <v>269746.6387036242</v>
+        <v>269199.8910000522</v>
       </c>
       <c r="P6" t="n">
-        <v>269746.6387036241</v>
+        <v>269199.8910000523</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>9.031127956876844</v>
       </c>
       <c r="E4" t="n">
-        <v>571.1119344138681</v>
+        <v>571.111934413868</v>
       </c>
       <c r="F4" t="n">
-        <v>571.1119344138681</v>
+        <v>571.111934413868</v>
       </c>
       <c r="G4" t="n">
-        <v>571.1119344138681</v>
+        <v>571.111934413868</v>
       </c>
       <c r="H4" t="n">
-        <v>571.1119344138681</v>
+        <v>571.111934413868</v>
       </c>
       <c r="I4" t="n">
         <v>1230.304807519269</v>
@@ -26822,16 +26822,16 @@
         <v>1221.273679562392</v>
       </c>
       <c r="M4" t="n">
-        <v>659.1928731054008</v>
+        <v>659.192873105401</v>
       </c>
       <c r="N4" t="n">
-        <v>659.1928731054008</v>
+        <v>659.192873105401</v>
       </c>
       <c r="O4" t="n">
-        <v>659.1928731054008</v>
+        <v>659.192873105401</v>
       </c>
       <c r="P4" t="n">
-        <v>659.1928731054008</v>
+        <v>659.192873105401</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>562.0808064569912</v>
+        <v>562.0808064569911</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>659.1928731054008</v>
+        <v>659.192873105401</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>562.0808064569912</v>
+        <v>562.0808064569911</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>312.8876024247571</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>29.65836707291616</v>
+        <v>28.58185662045643</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2344684593006</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27709,10 +27709,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>109.8280917919774</v>
       </c>
       <c r="H6" t="n">
-        <v>78.38331427852823</v>
+        <v>79.45982473098795</v>
       </c>
       <c r="I6" t="n">
         <v>39.86225349133068</v>
@@ -27757,7 +27757,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>219.8614559036289</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>174.3248105475114</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>159.4719387977938</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27785,7 +27785,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>147.7980579347397</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.630851516872</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>191.7567950223993</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27833,7 +27833,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>255.3649342229669</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>28.58185662045643</v>
       </c>
       <c r="S8" t="n">
-        <v>155.8172915514831</v>
+        <v>156.8938020039428</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27915,7 +27915,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>359.3344271769783</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -27943,16 +27943,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
-        <v>114.1563600988227</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>87.41444223540508</v>
+        <v>78.38331427852823</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>39.86225349133068</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
-        <v>198.9313839312678</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
         <v>220.3146016126436</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.4013209999711</v>
+        <v>174.3248105475114</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>145.0456540096336</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>144.9720960625127</v>
+        <v>146.0486065149724</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28034,7 +28034,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>21.04335951528223</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>224.3307333565714</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>254.2884237705072</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -31995,40 +31995,40 @@
         <v>15.56580180288203</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5964187970814</v>
+        <v>58.59641879708141</v>
       </c>
       <c r="J14" t="n">
-        <v>129.0006562448294</v>
+        <v>129.0006562448295</v>
       </c>
       <c r="K14" t="n">
         <v>193.3385437405938</v>
       </c>
       <c r="L14" t="n">
-        <v>239.8535596737026</v>
+        <v>239.8535596737027</v>
       </c>
       <c r="M14" t="n">
-        <v>266.8832999702488</v>
+        <v>266.8832999702489</v>
       </c>
       <c r="N14" t="n">
         <v>271.2017507816672</v>
       </c>
       <c r="O14" t="n">
-        <v>256.0881228868879</v>
+        <v>256.088122886888</v>
       </c>
       <c r="P14" t="n">
-        <v>218.5652880758394</v>
+        <v>218.5652880758395</v>
       </c>
       <c r="Q14" t="n">
         <v>164.1334289701919</v>
       </c>
       <c r="R14" t="n">
-        <v>95.47519077263897</v>
+        <v>95.47519077263898</v>
       </c>
       <c r="S14" t="n">
         <v>34.6350014483754</v>
       </c>
       <c r="T14" t="n">
-        <v>6.653416076369203</v>
+        <v>6.653416076369204</v>
       </c>
       <c r="U14" t="n">
         <v>0.1215929836914988</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8132247724131321</v>
+        <v>0.8132247724131322</v>
       </c>
       <c r="H15" t="n">
-        <v>7.854039249358408</v>
+        <v>7.854039249358409</v>
       </c>
       <c r="I15" t="n">
         <v>27.99918624317144</v>
       </c>
       <c r="J15" t="n">
-        <v>76.83190711645298</v>
+        <v>76.831907116453</v>
       </c>
       <c r="K15" t="n">
         <v>131.3179668681328</v>
@@ -32107,10 +32107,10 @@
         <v>15.10529347004216</v>
       </c>
       <c r="T15" t="n">
-        <v>3.277866516875737</v>
+        <v>3.277866516875738</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05350162976402187</v>
+        <v>0.05350162976402188</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,16 +32150,16 @@
         <v>0.6817803312005406</v>
       </c>
       <c r="H16" t="n">
-        <v>6.061646944673901</v>
+        <v>6.061646944673902</v>
       </c>
       <c r="I16" t="n">
-        <v>20.50299396010353</v>
+        <v>20.50299396010354</v>
       </c>
       <c r="J16" t="n">
-        <v>48.20186941587821</v>
+        <v>48.20186941587822</v>
       </c>
       <c r="K16" t="n">
-        <v>79.21047847948097</v>
+        <v>79.21047847948098</v>
       </c>
       <c r="L16" t="n">
         <v>101.3621412404877</v>
@@ -32171,16 +32171,16 @@
         <v>104.3309846827155</v>
       </c>
       <c r="O16" t="n">
-        <v>96.36655081369099</v>
+        <v>96.36655081369101</v>
       </c>
       <c r="P16" t="n">
-        <v>82.45823205719989</v>
+        <v>82.45823205719991</v>
       </c>
       <c r="Q16" t="n">
         <v>57.08980573352891</v>
       </c>
       <c r="R16" t="n">
-        <v>30.65532289198066</v>
+        <v>30.65532289198067</v>
       </c>
       <c r="S16" t="n">
         <v>11.88157177192214</v>
@@ -32189,7 +32189,7 @@
         <v>2.913061415129582</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03718801806548407</v>
+        <v>0.03718801806548408</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>15.56580180288203</v>
       </c>
       <c r="I17" t="n">
-        <v>58.5964187970814</v>
+        <v>58.59641879708141</v>
       </c>
       <c r="J17" t="n">
-        <v>129.0006562448294</v>
+        <v>129.0006562448295</v>
       </c>
       <c r="K17" t="n">
         <v>193.3385437405938</v>
       </c>
       <c r="L17" t="n">
-        <v>239.8535596737026</v>
+        <v>239.8535596737027</v>
       </c>
       <c r="M17" t="n">
-        <v>266.8832999702488</v>
+        <v>266.8832999702489</v>
       </c>
       <c r="N17" t="n">
         <v>271.2017507816672</v>
       </c>
       <c r="O17" t="n">
-        <v>256.0881228868879</v>
+        <v>256.088122886888</v>
       </c>
       <c r="P17" t="n">
-        <v>218.5652880758394</v>
+        <v>218.5652880758395</v>
       </c>
       <c r="Q17" t="n">
         <v>164.1334289701919</v>
       </c>
       <c r="R17" t="n">
-        <v>95.47519077263897</v>
+        <v>95.47519077263898</v>
       </c>
       <c r="S17" t="n">
         <v>34.6350014483754</v>
       </c>
       <c r="T17" t="n">
-        <v>6.653416076369203</v>
+        <v>6.653416076369204</v>
       </c>
       <c r="U17" t="n">
         <v>0.1215929836914988</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8132247724131321</v>
+        <v>0.8132247724131322</v>
       </c>
       <c r="H18" t="n">
-        <v>7.854039249358408</v>
+        <v>7.854039249358409</v>
       </c>
       <c r="I18" t="n">
         <v>27.99918624317144</v>
       </c>
       <c r="J18" t="n">
-        <v>76.83190711645298</v>
+        <v>76.831907116453</v>
       </c>
       <c r="K18" t="n">
         <v>131.3179668681328</v>
@@ -32344,10 +32344,10 @@
         <v>15.10529347004216</v>
       </c>
       <c r="T18" t="n">
-        <v>3.277866516875737</v>
+        <v>3.277866516875738</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05350162976402187</v>
+        <v>0.05350162976402188</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,16 +32387,16 @@
         <v>0.6817803312005406</v>
       </c>
       <c r="H19" t="n">
-        <v>6.061646944673901</v>
+        <v>6.061646944673902</v>
       </c>
       <c r="I19" t="n">
-        <v>20.50299396010353</v>
+        <v>20.50299396010354</v>
       </c>
       <c r="J19" t="n">
-        <v>48.20186941587821</v>
+        <v>48.20186941587822</v>
       </c>
       <c r="K19" t="n">
-        <v>79.21047847948097</v>
+        <v>79.21047847948098</v>
       </c>
       <c r="L19" t="n">
         <v>101.3621412404877</v>
@@ -32408,16 +32408,16 @@
         <v>104.3309846827155</v>
       </c>
       <c r="O19" t="n">
-        <v>96.36655081369099</v>
+        <v>96.36655081369101</v>
       </c>
       <c r="P19" t="n">
-        <v>82.45823205719989</v>
+        <v>82.45823205719991</v>
       </c>
       <c r="Q19" t="n">
         <v>57.08980573352891</v>
       </c>
       <c r="R19" t="n">
-        <v>30.65532289198066</v>
+        <v>30.65532289198067</v>
       </c>
       <c r="S19" t="n">
         <v>11.88157177192214</v>
@@ -32426,7 +32426,7 @@
         <v>2.913061415129582</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03718801806548407</v>
+        <v>0.03718801806548408</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>9.031127956876844</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>9.031127956876844</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
+        <v>8.666233898013131</v>
+      </c>
+      <c r="P5" t="n">
         <v>9.031127956876844</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8.666233898013131</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8.666233898013129</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>9.031127956876844</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>8.666233898013131</v>
       </c>
       <c r="O6" t="n">
-        <v>9.031127956876844</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>9.031127956876844</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35096,19 +35096,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>5.209469887860651</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="O7" t="n">
-        <v>9.031127956876844</v>
+        <v>5.209469887860651</v>
       </c>
       <c r="P7" t="n">
         <v>9.031127956876844</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="L8" t="n">
-        <v>9.031127956876844</v>
+        <v>8.666233898013131</v>
       </c>
       <c r="M8" t="n">
-        <v>8.666233898013129</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>9.031127956876844</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>9.031127956876844</v>
@@ -35263,16 +35263,16 @@
         <v>9.031127956876844</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>8.666233898013129</v>
-      </c>
-      <c r="O9" t="n">
-        <v>9.031127956876844</v>
       </c>
       <c r="P9" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,16 +35333,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="L10" t="n">
+        <v>9.031127956876844</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>5.209469887860651</v>
-      </c>
-      <c r="M10" t="n">
-        <v>9.031127956876844</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.031127956876844</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.32081830248333</v>
+        <v>275.1115379709184</v>
       </c>
       <c r="K11" t="n">
         <v>50.2801405613564</v>
@@ -35421,19 +35421,19 @@
         <v>117.1582483725215</v>
       </c>
       <c r="N11" t="n">
-        <v>571.1119344138681</v>
+        <v>571.111934413868</v>
       </c>
       <c r="O11" t="n">
-        <v>571.1119344138681</v>
+        <v>571.111934413868</v>
       </c>
       <c r="P11" t="n">
-        <v>502.9379259936253</v>
+        <v>570.2698255824271</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.846115981251</v>
+        <v>19.63473055179969</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.08876617221405946</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>191.0894649141574</v>
       </c>
       <c r="K12" t="n">
-        <v>340.8764333903221</v>
+        <v>454.2868012744221</v>
       </c>
       <c r="L12" t="n">
-        <v>571.1119344138681</v>
+        <v>86.51286524094188</v>
       </c>
       <c r="M12" t="n">
-        <v>571.1119344138681</v>
+        <v>113.6654880485242</v>
       </c>
       <c r="N12" t="n">
         <v>126.1340967042821</v>
       </c>
       <c r="O12" t="n">
-        <v>571.1119344138681</v>
+        <v>357.3217304826036</v>
       </c>
       <c r="P12" t="n">
-        <v>68.20689895841755</v>
+        <v>565.0088180367195</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.8192756875588</v>
+        <v>340.5398445554834</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>26.81339872505013</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>275.1115379709184</v>
       </c>
       <c r="K14" t="n">
-        <v>555.9469841723734</v>
+        <v>555.9469841723735</v>
       </c>
       <c r="L14" t="n">
-        <v>571.1119344138681</v>
+        <v>571.111934413868</v>
       </c>
       <c r="M14" t="n">
-        <v>117.1582483725215</v>
+        <v>117.1582483725216</v>
       </c>
       <c r="N14" t="n">
-        <v>158.5473545782409</v>
+        <v>158.5473545782404</v>
       </c>
       <c r="O14" t="n">
-        <v>106.5242854627915</v>
+        <v>106.5242854627916</v>
       </c>
       <c r="P14" t="n">
-        <v>68.26384083491422</v>
+        <v>68.26384083491428</v>
       </c>
       <c r="Q14" t="n">
         <v>350.846115981251</v>
       </c>
       <c r="R14" t="n">
-        <v>57.86220619530569</v>
+        <v>57.8622061953057</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>191.0894649141574</v>
       </c>
       <c r="K15" t="n">
-        <v>41.72103153479948</v>
+        <v>454.2868012744221</v>
       </c>
       <c r="L15" t="n">
-        <v>571.1119344138681</v>
+        <v>86.51286524094191</v>
       </c>
       <c r="M15" t="n">
-        <v>571.1119344138681</v>
+        <v>370.18791676609</v>
       </c>
       <c r="N15" t="n">
-        <v>567.881562340711</v>
+        <v>126.1340967042821</v>
       </c>
       <c r="O15" t="n">
         <v>100.7993017650373</v>
       </c>
       <c r="P15" t="n">
-        <v>68.20689895841755</v>
+        <v>565.0088180367195</v>
       </c>
       <c r="Q15" t="n">
         <v>340.5398445554834</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>26.81339872505014</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.12738194371914</v>
+        <v>18.12738194371915</v>
       </c>
       <c r="K16" t="n">
         <v>161.8721361662909</v>
@@ -35825,7 +35825,7 @@
         <v>203.5452681951581</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.54656974368139</v>
+        <v>60.5465697436814</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.32081830248333</v>
+        <v>275.1115379709184</v>
       </c>
       <c r="K17" t="n">
-        <v>50.2801405613564</v>
+        <v>50.28014056135646</v>
       </c>
       <c r="L17" t="n">
-        <v>86.60538994321095</v>
+        <v>86.60538994321101</v>
       </c>
       <c r="M17" t="n">
-        <v>571.1119344138681</v>
+        <v>571.111934413868</v>
       </c>
       <c r="N17" t="n">
-        <v>571.1119344138681</v>
+        <v>122.0832594438831</v>
       </c>
       <c r="O17" t="n">
-        <v>381.037734213171</v>
+        <v>177.2020978899635</v>
       </c>
       <c r="P17" t="n">
-        <v>570.2698255824271</v>
+        <v>570.2698255824272</v>
       </c>
       <c r="Q17" t="n">
-        <v>19.63473055179969</v>
+        <v>350.846115981251</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>57.8622061953057</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>191.0894649141574</v>
       </c>
       <c r="K18" t="n">
         <v>454.2868012744221</v>
       </c>
       <c r="L18" t="n">
-        <v>86.51286524094188</v>
+        <v>343.0352939585076</v>
       </c>
       <c r="M18" t="n">
-        <v>571.1119344138681</v>
+        <v>113.6654880485242</v>
       </c>
       <c r="N18" t="n">
-        <v>571.1119344138681</v>
+        <v>126.1340967042821</v>
       </c>
       <c r="O18" t="n">
-        <v>497.3227979931082</v>
+        <v>100.7993017650373</v>
       </c>
       <c r="P18" t="n">
-        <v>68.20689895841755</v>
+        <v>565.0088180367195</v>
       </c>
       <c r="Q18" t="n">
-        <v>12.8192756875588</v>
+        <v>340.5398445554834</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>26.81339872505014</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.12738194371914</v>
+        <v>18.12738194371915</v>
       </c>
       <c r="K19" t="n">
         <v>161.8721361662909</v>
@@ -36062,7 +36062,7 @@
         <v>203.5452681951581</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.54656974368139</v>
+        <v>60.5465697436814</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>275.1115379709184</v>
       </c>
       <c r="K20" t="n">
-        <v>555.9469841723735</v>
+        <v>459.0348157851054</v>
       </c>
       <c r="L20" t="n">
-        <v>571.1119344138681</v>
+        <v>571.111934413868</v>
       </c>
       <c r="M20" t="n">
         <v>117.1582483725216</v>
       </c>
       <c r="N20" t="n">
-        <v>216.4095607735463</v>
+        <v>122.0832594438831</v>
       </c>
       <c r="O20" t="n">
-        <v>106.5242854627916</v>
+        <v>571.111934413868</v>
       </c>
       <c r="P20" t="n">
         <v>68.26384083491428</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.846115981251</v>
+        <v>19.63473055179972</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>57.8622061953057</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>41.72103153479948</v>
+        <v>454.2868012744221</v>
       </c>
       <c r="L21" t="n">
-        <v>571.1119344138681</v>
+        <v>418.3460938168092</v>
       </c>
       <c r="M21" t="n">
         <v>113.6654880485242</v>
       </c>
       <c r="N21" t="n">
-        <v>571.1119344138681</v>
+        <v>126.1340967042821</v>
       </c>
       <c r="O21" t="n">
-        <v>385.9340258468459</v>
+        <v>571.111934413868</v>
       </c>
       <c r="P21" t="n">
         <v>565.0088180367195</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>191.0894649141574</v>
       </c>
       <c r="K24" t="n">
-        <v>41.72103153479948</v>
+        <v>454.2868012744221</v>
       </c>
       <c r="L24" t="n">
-        <v>665.0238039143381</v>
+        <v>343.035293958508</v>
       </c>
       <c r="M24" t="n">
-        <v>840.1653874985242</v>
+        <v>113.6654880485242</v>
       </c>
       <c r="N24" t="n">
         <v>126.1340967042821</v>
@@ -36454,13 +36454,13 @@
         <v>100.7993017650373</v>
       </c>
       <c r="P24" t="n">
-        <v>474.7096108776445</v>
+        <v>565.0088180367195</v>
       </c>
       <c r="Q24" t="n">
-        <v>12.81927568755881</v>
+        <v>340.5398445554834</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>26.81339872505014</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>275.1115379709184</v>
       </c>
       <c r="K26" t="n">
-        <v>555.9469841723735</v>
+        <v>555.9469841723729</v>
       </c>
       <c r="L26" t="n">
         <v>738.1568846419136</v>
@@ -36615,7 +36615,7 @@
         <v>570.2698255824272</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.8461159812508</v>
+        <v>350.846115981251</v>
       </c>
       <c r="R26" t="n">
         <v>57.8622061953057</v>
@@ -36676,13 +36676,13 @@
         <v>191.0894649141574</v>
       </c>
       <c r="K27" t="n">
-        <v>41.72103153479948</v>
+        <v>454.2868012744221</v>
       </c>
       <c r="L27" t="n">
-        <v>665.0238039143381</v>
+        <v>343.035293958508</v>
       </c>
       <c r="M27" t="n">
-        <v>531.9633167002414</v>
+        <v>113.6654880485242</v>
       </c>
       <c r="N27" t="n">
         <v>126.1340967042821</v>
@@ -36694,7 +36694,7 @@
         <v>565.0088180367195</v>
       </c>
       <c r="Q27" t="n">
-        <v>12.81927568755881</v>
+        <v>340.5398445554834</v>
       </c>
       <c r="R27" t="n">
         <v>26.81339872505014</v>
@@ -36840,7 +36840,7 @@
         <v>738.1568846419136</v>
       </c>
       <c r="M29" t="n">
-        <v>782.6397428526963</v>
+        <v>818.3993606213403</v>
       </c>
       <c r="N29" t="n">
         <v>804.3444615265784</v>
@@ -36852,7 +36852,7 @@
         <v>570.2698255824272</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.846115981251</v>
+        <v>315.0864982126075</v>
       </c>
       <c r="R29" t="n">
         <v>57.8622061953057</v>
@@ -36919,22 +36919,22 @@
         <v>665.0238039143381</v>
       </c>
       <c r="M30" t="n">
-        <v>840.1653874985242</v>
+        <v>113.6654880485242</v>
       </c>
       <c r="N30" t="n">
-        <v>126.1340967042821</v>
+        <v>216.711356488074</v>
       </c>
       <c r="O30" t="n">
-        <v>316.2125487701064</v>
+        <v>100.7993017650373</v>
       </c>
       <c r="P30" t="n">
-        <v>68.20689895841758</v>
+        <v>565.0088180367195</v>
       </c>
       <c r="Q30" t="n">
-        <v>12.81927568755881</v>
+        <v>340.5398445554834</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>26.81339872505014</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>738.1568846419136</v>
       </c>
       <c r="M32" t="n">
-        <v>818.3993606213403</v>
+        <v>782.6397428526963</v>
       </c>
       <c r="N32" t="n">
         <v>804.3444615265784</v>
@@ -37089,7 +37089,7 @@
         <v>570.2698255824272</v>
       </c>
       <c r="Q32" t="n">
-        <v>315.0864982126075</v>
+        <v>350.846115981251</v>
       </c>
       <c r="R32" t="n">
         <v>57.8622061953057</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>42.86786365299962</v>
+        <v>191.0894649141574</v>
       </c>
       <c r="K33" t="n">
-        <v>41.72103153479948</v>
+        <v>454.2868012744221</v>
       </c>
       <c r="L33" t="n">
-        <v>86.51286524094191</v>
+        <v>343.0352939585075</v>
       </c>
       <c r="M33" t="n">
-        <v>840.1653874985242</v>
+        <v>113.6654880485242</v>
       </c>
       <c r="N33" t="n">
         <v>126.1340967042821</v>
       </c>
       <c r="O33" t="n">
-        <v>715.2245198367353</v>
+        <v>100.7993017650373</v>
       </c>
       <c r="P33" t="n">
-        <v>68.20689895841758</v>
+        <v>565.0088180367195</v>
       </c>
       <c r="Q33" t="n">
         <v>340.5398445554834</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>26.81339872505014</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.32081830248336</v>
+        <v>275.1115379709184</v>
       </c>
       <c r="K35" t="n">
-        <v>555.9469841723735</v>
+        <v>125.0811121302458</v>
       </c>
       <c r="L35" t="n">
-        <v>659.1928731054008</v>
+        <v>86.60538994321101</v>
       </c>
       <c r="M35" t="n">
-        <v>565.1646603214379</v>
+        <v>659.192873105401</v>
       </c>
       <c r="N35" t="n">
-        <v>122.0832594438831</v>
+        <v>659.192873105401</v>
       </c>
       <c r="O35" t="n">
-        <v>106.5242854627916</v>
+        <v>659.192873105401</v>
       </c>
       <c r="P35" t="n">
-        <v>570.2698255824272</v>
+        <v>68.26384083491428</v>
       </c>
       <c r="Q35" t="n">
         <v>19.63473055179972</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>57.8622061953057</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>191.0894649141574</v>
       </c>
       <c r="K36" t="n">
         <v>454.2868012744221</v>
       </c>
       <c r="L36" t="n">
-        <v>524.6813002748983</v>
+        <v>343.0352939585079</v>
       </c>
       <c r="M36" t="n">
         <v>113.6654880485242</v>
       </c>
       <c r="N36" t="n">
-        <v>659.1928731054008</v>
+        <v>126.1340967042821</v>
       </c>
       <c r="O36" t="n">
         <v>100.7993017650373</v>
       </c>
       <c r="P36" t="n">
-        <v>68.20689895841758</v>
+        <v>565.0088180367195</v>
       </c>
       <c r="Q36" t="n">
         <v>340.5398445554834</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>26.81339872505014</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>50.28014056135646</v>
       </c>
       <c r="L38" t="n">
-        <v>659.1928731054008</v>
+        <v>659.192873105401</v>
       </c>
       <c r="M38" t="n">
-        <v>117.1582483725216</v>
+        <v>659.192873105401</v>
       </c>
       <c r="N38" t="n">
-        <v>659.1928731054008</v>
+        <v>659.192873105401</v>
       </c>
       <c r="O38" t="n">
-        <v>259.2972076927722</v>
+        <v>106.5242854627916</v>
       </c>
       <c r="P38" t="n">
-        <v>570.2698255824272</v>
+        <v>181.008123079529</v>
       </c>
       <c r="Q38" t="n">
         <v>19.63473055179972</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>191.0894649141574</v>
       </c>
       <c r="K39" t="n">
-        <v>41.72103153479948</v>
+        <v>454.2868012744221</v>
       </c>
       <c r="L39" t="n">
-        <v>659.1928731054008</v>
+        <v>343.0352939585079</v>
       </c>
       <c r="M39" t="n">
         <v>113.6654880485242</v>
       </c>
       <c r="N39" t="n">
-        <v>659.1928731054008</v>
+        <v>126.1340967042821</v>
       </c>
       <c r="O39" t="n">
-        <v>209.7721484637801</v>
+        <v>100.7993017650373</v>
       </c>
       <c r="P39" t="n">
         <v>565.0088180367195</v>
       </c>
       <c r="Q39" t="n">
-        <v>12.81927568755881</v>
+        <v>340.5398445554834</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>26.81339872505014</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.32081830248336</v>
+        <v>18.70112411035633</v>
       </c>
       <c r="K41" t="n">
         <v>50.28014056135646</v>
@@ -37788,22 +37788,22 @@
         <v>86.60538994321101</v>
       </c>
       <c r="M41" t="n">
-        <v>222.4294003610663</v>
+        <v>659.192873105401</v>
       </c>
       <c r="N41" t="n">
-        <v>659.1928731054008</v>
+        <v>659.192873105401</v>
       </c>
       <c r="O41" t="n">
-        <v>659.1928731054008</v>
+        <v>659.192873105401</v>
       </c>
       <c r="P41" t="n">
-        <v>570.2698255824272</v>
+        <v>68.26384083491428</v>
       </c>
       <c r="Q41" t="n">
         <v>350.846115981251</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>57.8622061953057</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>191.0894649141574</v>
       </c>
       <c r="K42" t="n">
-        <v>41.72103153479948</v>
+        <v>454.2868012744221</v>
       </c>
       <c r="L42" t="n">
-        <v>161.0466824852056</v>
+        <v>343.0352939585079</v>
       </c>
       <c r="M42" t="n">
-        <v>659.1928731054008</v>
+        <v>113.6654880485242</v>
       </c>
       <c r="N42" t="n">
-        <v>659.1928731054008</v>
+        <v>126.1340967042821</v>
       </c>
       <c r="O42" t="n">
-        <v>659.1928731054008</v>
+        <v>100.7993017650373</v>
       </c>
       <c r="P42" t="n">
-        <v>68.20689895841758</v>
+        <v>565.0088180367195</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.81927568755881</v>
+        <v>340.5398445554834</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>26.81339872505014</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>275.1115379709184</v>
+        <v>11.32081830248336</v>
       </c>
       <c r="K44" t="n">
-        <v>555.9469841723735</v>
+        <v>426.8151424744061</v>
       </c>
       <c r="L44" t="n">
-        <v>659.1928731054008</v>
+        <v>659.192873105401</v>
       </c>
       <c r="M44" t="n">
-        <v>659.1928731054008</v>
+        <v>659.192873105401</v>
       </c>
       <c r="N44" t="n">
-        <v>122.0832594438831</v>
+        <v>659.192873105401</v>
       </c>
       <c r="O44" t="n">
         <v>106.5242854627916</v>
       </c>
       <c r="P44" t="n">
-        <v>212.4508931300294</v>
+        <v>68.26384083491428</v>
       </c>
       <c r="Q44" t="n">
         <v>19.63473055179972</v>
@@ -38098,10 +38098,10 @@
         <v>191.0894649141574</v>
       </c>
       <c r="K45" t="n">
-        <v>41.72103153479948</v>
+        <v>454.2868012744221</v>
       </c>
       <c r="L45" t="n">
-        <v>659.1928731054008</v>
+        <v>343.0352939585079</v>
       </c>
       <c r="M45" t="n">
         <v>113.6654880485242</v>
@@ -38110,16 +38110,16 @@
         <v>126.1340967042821</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7414599507415</v>
+        <v>100.7993017650373</v>
       </c>
       <c r="P45" t="n">
         <v>565.0088180367195</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.81927568755881</v>
+        <v>340.5398445554834</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>26.81339872505014</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
